--- a/scripts/Fig2/vertical_smage.xlsx
+++ b/scripts/Fig2/vertical_smage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周泽铭\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\scmgca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F993C2A-99A5-4BDC-855C-C1C1B618201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE792D-9A1E-4B86-B556-1FB512607D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,277 +97,302 @@
     <t>AMI3</t>
   </si>
   <si>
+    <t>AMI9</t>
+  </si>
+  <si>
+    <t>AMI10</t>
+  </si>
+  <si>
+    <t>AMI11</t>
+  </si>
+  <si>
+    <t>AMI12</t>
+  </si>
+  <si>
+    <t>AMI13</t>
+  </si>
+  <si>
+    <t>AMI14</t>
+  </si>
+  <si>
+    <t>NMI3</t>
+  </si>
+  <si>
+    <t>NMI9</t>
+  </si>
+  <si>
+    <t>NMI10</t>
+  </si>
+  <si>
+    <t>NMI11</t>
+  </si>
+  <si>
+    <t>NMI12</t>
+  </si>
+  <si>
+    <t>NMI13</t>
+  </si>
+  <si>
+    <t>NMI14</t>
+  </si>
+  <si>
+    <t>ARI3</t>
+  </si>
+  <si>
+    <t>ARI9</t>
+  </si>
+  <si>
+    <t>ARI10</t>
+  </si>
+  <si>
+    <t>ARI11</t>
+  </si>
+  <si>
+    <t>ARI12</t>
+  </si>
+  <si>
+    <t>ARI13</t>
+  </si>
+  <si>
+    <t>ARI14</t>
+  </si>
+  <si>
+    <t>ACC3</t>
+  </si>
+  <si>
+    <t>ACC9</t>
+  </si>
+  <si>
+    <t>ACC10</t>
+  </si>
+  <si>
+    <t>ACC11</t>
+  </si>
+  <si>
+    <t>ACC12</t>
+  </si>
+  <si>
+    <t>ACC13</t>
+  </si>
+  <si>
+    <t>ACC14</t>
+  </si>
+  <si>
+    <t>PVALUE1</t>
+  </si>
+  <si>
+    <t>PVALUE2</t>
+  </si>
+  <si>
+    <t>PVALUE3</t>
+  </si>
+  <si>
+    <t>PVALUE4</t>
+  </si>
+  <si>
+    <t>TIME3</t>
+  </si>
+  <si>
+    <t>TIME9</t>
+  </si>
+  <si>
+    <t>TIME10</t>
+  </si>
+  <si>
+    <t>TIME11</t>
+  </si>
+  <si>
+    <t>TIME12</t>
+  </si>
+  <si>
+    <t>TIME13</t>
+  </si>
+  <si>
+    <t>TIME14</t>
+  </si>
+  <si>
+    <t>RANK3</t>
+  </si>
+  <si>
+    <t>RANK4</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>RNA+ADT</t>
+  </si>
+  <si>
+    <t>RNA+ATAC</t>
+  </si>
+  <si>
+    <t>RNA+ADT+ATAC</t>
+  </si>
+  <si>
+    <t>AMI1</t>
+  </si>
+  <si>
+    <t>AMI2</t>
+  </si>
+  <si>
+    <t>NMI1</t>
+  </si>
+  <si>
+    <t>NMI2</t>
+  </si>
+  <si>
+    <t>ARI1</t>
+  </si>
+  <si>
+    <t>ARI2</t>
+  </si>
+  <si>
+    <t>ACC1</t>
+  </si>
+  <si>
+    <t>ACC2</t>
+  </si>
+  <si>
+    <t>TIME1</t>
+  </si>
+  <si>
+    <t>TIME2</t>
+  </si>
+  <si>
+    <t>RANK1</t>
+  </si>
+  <si>
+    <t>RANK2</t>
+  </si>
+  <si>
+    <t>STAR1</t>
+  </si>
+  <si>
+    <t>STAR2</t>
+  </si>
+  <si>
+    <t>STAR3</t>
+  </si>
+  <si>
+    <t>STAR4</t>
+  </si>
+  <si>
     <t>AMI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMI8</t>
-  </si>
-  <si>
-    <t>AMI9</t>
-  </si>
-  <si>
-    <t>AMI10</t>
-  </si>
-  <si>
-    <t>AMI11</t>
-  </si>
-  <si>
-    <t>AMI12</t>
-  </si>
-  <si>
-    <t>AMI13</t>
-  </si>
-  <si>
-    <t>AMI14</t>
-  </si>
-  <si>
-    <t>NMI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NMI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NMI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NMI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NMI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NMI8</t>
-  </si>
-  <si>
-    <t>NMI9</t>
-  </si>
-  <si>
-    <t>NMI10</t>
-  </si>
-  <si>
-    <t>NMI11</t>
-  </si>
-  <si>
-    <t>NMI12</t>
-  </si>
-  <si>
-    <t>NMI13</t>
-  </si>
-  <si>
-    <t>NMI14</t>
-  </si>
-  <si>
-    <t>ARI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARI8</t>
-  </si>
-  <si>
-    <t>ARI9</t>
-  </si>
-  <si>
-    <t>ARI10</t>
-  </si>
-  <si>
-    <t>ARI11</t>
-  </si>
-  <si>
-    <t>ARI12</t>
-  </si>
-  <si>
-    <t>ARI13</t>
-  </si>
-  <si>
-    <t>ARI14</t>
-  </si>
-  <si>
-    <t>ACC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC8</t>
-  </si>
-  <si>
-    <t>ACC9</t>
-  </si>
-  <si>
-    <t>ACC10</t>
-  </si>
-  <si>
-    <t>ACC11</t>
-  </si>
-  <si>
-    <t>ACC12</t>
-  </si>
-  <si>
-    <t>ACC13</t>
-  </si>
-  <si>
-    <t>ACC14</t>
-  </si>
-  <si>
-    <t>PVALUE1</t>
-  </si>
-  <si>
-    <t>PVALUE2</t>
-  </si>
-  <si>
-    <t>PVALUE3</t>
-  </si>
-  <si>
-    <t>PVALUE4</t>
-  </si>
-  <si>
-    <t>TIME3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIME4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIME5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIME6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIME7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIME8</t>
-  </si>
-  <si>
-    <t>TIME9</t>
-  </si>
-  <si>
-    <t>TIME10</t>
-  </si>
-  <si>
-    <t>TIME11</t>
-  </si>
-  <si>
-    <t>TIME12</t>
-  </si>
-  <si>
-    <t>TIME13</t>
-  </si>
-  <si>
-    <t>TIME14</t>
-  </si>
-  <si>
-    <t>RANK3</t>
-  </si>
-  <si>
-    <t>RANK4</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>ns</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>RNA+ADT</t>
-  </si>
-  <si>
-    <t>RNA+ATAC</t>
-  </si>
-  <si>
-    <t>RNA+ADT+ATAC</t>
-  </si>
-  <si>
-    <t>AMI1</t>
-  </si>
-  <si>
-    <t>AMI2</t>
-  </si>
-  <si>
-    <t>NMI1</t>
-  </si>
-  <si>
-    <t>NMI2</t>
-  </si>
-  <si>
-    <t>ARI1</t>
-  </si>
-  <si>
-    <t>ARI2</t>
-  </si>
-  <si>
-    <t>ACC1</t>
-  </si>
-  <si>
-    <t>ACC2</t>
-  </si>
-  <si>
-    <t>TIME1</t>
-  </si>
-  <si>
-    <t>TIME2</t>
-  </si>
-  <si>
-    <t>RANK1</t>
-  </si>
-  <si>
-    <t>RANK2</t>
-  </si>
-  <si>
-    <t>STAR1</t>
-  </si>
-  <si>
-    <t>STAR2</t>
-  </si>
-  <si>
-    <t>STAR3</t>
-  </si>
-  <si>
-    <t>STAR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -377,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +434,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -458,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,6 +526,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,274 +813,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="61" max="62" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.88671875" customWidth="1"/>
+    <col min="75" max="75" width="10.33203125" customWidth="1"/>
+    <col min="79" max="82" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AD1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK1" t="s">
         <v>98</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AL1" t="s">
         <v>99</v>
       </c>
-      <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AM1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AS1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AU1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AX1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BD1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="BE1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BF1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BG1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BH1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BI1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BK1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BL1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BM1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO1" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BP1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU1" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BV1" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BW1" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="BX1" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BY1" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BZ1" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CA1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CD1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BZ1" t="s">
+      <c r="CE1" t="s">
         <v>83</v>
       </c>
-      <c r="CA1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>85</v>
       </c>
-      <c r="CE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>110</v>
-      </c>
       <c r="CH1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -1047,181 +1094,181 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
-        <v>0.72430000000000005</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="F2" s="2">
-        <v>0.7218</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5847</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>0.70199999999999996</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>0.53449999999999998</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="J2" s="2">
-        <v>0.86850000000000005</v>
+        <v>0.6673</v>
       </c>
       <c r="K2" s="2">
-        <v>0.74490000000000001</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="L2" s="2">
-        <v>0.77559999999999996</v>
+        <v>0.7389</v>
       </c>
       <c r="M2" s="2">
-        <v>0.7258</v>
+        <v>0.7137</v>
       </c>
       <c r="N2" s="2">
-        <v>0.78349999999999997</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="O2" s="2">
-        <v>0.69259999999999999</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="P2" s="2">
-        <v>0.72340000000000004</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.4708</v>
+        <v>0.4582</v>
       </c>
       <c r="R2" s="2">
-        <v>0.3856</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="S2" s="3">
-        <v>0.72589999999999999</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="T2" s="3">
-        <v>0.72309999999999997</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="U2" s="3">
-        <v>0.58660000000000001</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="V2" s="3">
-        <v>0.70330000000000004</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="W2" s="3">
-        <v>0.5373</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="X2" s="3">
-        <v>0.86929999999999996</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.74629999999999996</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.77739999999999998</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.72760000000000002</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.78610000000000002</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.69499999999999995</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.72540000000000004</v>
+        <v>0.72160000000000002</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.4738</v>
+        <v>0.4612</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.3896</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.59509999999999996</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.60129999999999995</v>
+        <v>0.50590000000000002</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.4778</v>
+        <v>0.4834</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.53310000000000002</v>
+        <v>0.94110000000000005</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.38340000000000002</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="AL2" s="3">
-        <v>0.95189999999999997</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AM2" s="3">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>0.1686</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="AZ2" s="2">
         <v>0.56230000000000002</v>
       </c>
-      <c r="AN2" s="3">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0.50429999999999997</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0.57830000000000004</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>0.41980000000000001</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>0.28270000000000001</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>0.18729999999999999</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0.71140000000000003</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0.64270000000000005</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>0.57740000000000002</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>0.54590000000000005</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>0.92290000000000005</v>
-      </c>
       <c r="BA2" s="2">
-        <v>0.66890000000000005</v>
+        <v>0.55259999999999998</v>
       </c>
       <c r="BB2" s="2">
-        <v>0.68979999999999997</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="BC2" s="2">
-        <v>0.6643</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.70909999999999995</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.49320000000000003</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="BF2" s="2">
-        <v>0.60419999999999996</v>
+        <v>0.60089999999999999</v>
       </c>
       <c r="BG2" s="2">
-        <v>0.4501</v>
+        <v>0.42430000000000001</v>
       </c>
       <c r="BH2" s="2">
-        <v>0.34350000000000003</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="BM2" s="2">
         <v>2.214843848047698</v>
@@ -1233,19 +1280,19 @@
         <v>2.7944880466591697</v>
       </c>
       <c r="BP2" s="2">
+        <v>1.7242758696007889</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>2.4345689040341987</v>
+      </c>
+      <c r="BR2" s="2">
         <v>3.6232492903979003</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BS2" s="2">
         <v>3.8376515578463923</v>
       </c>
-      <c r="BR2" s="2">
-        <v>1.7242758696007889</v>
-      </c>
-      <c r="BS2" s="2">
+      <c r="BT2" s="2">
         <v>3.7555699806287999</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>2.4345689040341987</v>
       </c>
       <c r="BU2" s="2">
         <v>3.659821158055705</v>
@@ -1265,31 +1312,31 @@
       <c r="BZ2" s="2">
         <v>3.7414667617697548</v>
       </c>
-      <c r="CA2" s="10">
-        <v>4.28571428571429</v>
+      <c r="CA2" s="12">
+        <v>5.1111000000000004</v>
       </c>
       <c r="CB2" s="2">
-        <v>4.21428571428571</v>
+        <v>5.1111000000000004</v>
       </c>
       <c r="CC2" s="2">
-        <v>4.78571428571429</v>
+        <v>6.1111000000000004</v>
       </c>
       <c r="CD2" s="2">
-        <v>5.0714285714285703</v>
+        <v>5.3333000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3">
         <v>0.62980000000000003</v>
@@ -1301,19 +1348,19 @@
         <v>0.53969999999999996</v>
       </c>
       <c r="H3" s="3">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.62060000000000004</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>0.58509999999999995</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.73929999999999996</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>0.69769999999999999</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.72760000000000002</v>
       </c>
       <c r="M3" s="3">
         <v>0.66200000000000003</v>
@@ -1343,19 +1390,19 @@
         <v>0.54179999999999995</v>
       </c>
       <c r="V3" s="3">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="X3" s="3">
         <v>0.62219999999999998</v>
       </c>
-      <c r="W3" s="3">
+      <c r="Y3" s="3">
         <v>0.58760000000000001</v>
       </c>
-      <c r="X3" s="3">
-        <v>0.74080000000000001</v>
-      </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>0.69920000000000004</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0.72970000000000002</v>
       </c>
       <c r="AA3" s="3">
         <v>0.66420000000000001</v>
@@ -1385,19 +1432,19 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="AJ3" s="3">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0.5514</v>
+      </c>
+      <c r="AL3" s="3">
         <v>0.44540000000000002</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AM3" s="3">
         <v>0.41489999999999999</v>
       </c>
-      <c r="AL3" s="3">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>0.49170000000000003</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0.5514</v>
       </c>
       <c r="AO3" s="3">
         <v>0.39200000000000002</v>
@@ -1427,19 +1474,19 @@
         <v>0.52090000000000003</v>
       </c>
       <c r="AX3" s="3">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="AZ3" s="3">
         <v>0.53759999999999997</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="BA3" s="3">
         <v>0.53859999999999997</v>
       </c>
-      <c r="AZ3" s="3">
-        <v>0.66510000000000002</v>
-      </c>
-      <c r="BA3" s="3">
+      <c r="BB3" s="3">
         <v>0.6179</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>0.60729999999999995</v>
       </c>
       <c r="BC3" s="3">
         <v>0.51129999999999998</v>
@@ -1460,16 +1507,16 @@
         <v>0.4975</v>
       </c>
       <c r="BI3" s="2">
-        <v>1.5062916460563699E-2</v>
-      </c>
-      <c r="BJ3" s="10">
-        <v>1.5043116769147E-2</v>
+        <v>0.20245783636199599</v>
+      </c>
+      <c r="BJ3" s="12">
+        <v>0.20199444442151099</v>
       </c>
       <c r="BK3" s="2">
-        <v>7.9557922711335008E-3</v>
-      </c>
-      <c r="BL3" s="10">
-        <v>3.37870680625563E-3</v>
+        <v>0.15252192060206099</v>
+      </c>
+      <c r="BL3" s="12">
+        <v>8.3572730902233994E-2</v>
       </c>
       <c r="BM3" s="2">
         <v>3.3288299758469582</v>
@@ -1481,19 +1528,19 @@
         <v>3.5563205959937187</v>
       </c>
       <c r="BP3" s="2">
+        <v>4.1743854791694437</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>4.1351135610898684</v>
+      </c>
+      <c r="BR3" s="2">
         <v>4.6497859595369047</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BS3" s="2">
         <v>4.6869907090547409</v>
       </c>
-      <c r="BR3" s="2">
-        <v>4.1743854791694437</v>
-      </c>
-      <c r="BS3" s="2">
+      <c r="BT3" s="2">
         <v>4.665893982953115</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>4.1351135610898684</v>
       </c>
       <c r="BU3" s="2">
         <v>4.4397536764097758</v>
@@ -1514,42 +1561,42 @@
         <v>4.1279366150786272</v>
       </c>
       <c r="CA3" s="2">
-        <v>7.78571428571429</v>
+        <v>6.7778</v>
       </c>
       <c r="CB3" s="2">
-        <v>7.78571428571429</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="CC3" s="2">
-        <v>9.1428571428571406</v>
+        <v>7.4443999999999999</v>
       </c>
       <c r="CD3" s="2">
-        <v>9.28571428571429</v>
+        <v>7.2222</v>
       </c>
       <c r="CE3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="CF3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="CG3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CH3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3">
         <v>0.60531707681972102</v>
@@ -1561,19 +1608,19 @@
         <v>0.57714687186347002</v>
       </c>
       <c r="H4" s="3">
+        <v>0.79567514070145595</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.77804922402757704</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.62131770283483201</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>0.464503428289885</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.79567514070145595</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>0.69006129924761905</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.77804922402757704</v>
       </c>
       <c r="M4" s="3">
         <v>0.61951735458928403</v>
@@ -1603,19 +1650,19 @@
         <v>0.57921100110063695</v>
       </c>
       <c r="V4" s="3">
+        <v>0.79696333173417899</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.77985359638320395</v>
+      </c>
+      <c r="X4" s="3">
         <v>0.62306527218649499</v>
       </c>
-      <c r="W4" s="3">
+      <c r="Y4" s="3">
         <v>0.46783322804375999</v>
       </c>
-      <c r="X4" s="3">
-        <v>0.79696333173417899</v>
-      </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>0.691705963118598</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0.77985359638320395</v>
       </c>
       <c r="AA4" s="3">
         <v>0.62205254464280502</v>
@@ -1645,19 +1692,19 @@
         <v>0.418680592747118</v>
       </c>
       <c r="AJ4" s="3">
+        <v>0.91312276747434395</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0.63678019932815</v>
+      </c>
+      <c r="AL4" s="3">
         <v>0.52546385175381904</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AM4" s="3">
         <v>0.33284210326830599</v>
       </c>
-      <c r="AL4" s="3">
-        <v>0.91312276747434395</v>
-      </c>
-      <c r="AM4" s="3">
+      <c r="AN4" s="3">
         <v>0.45554663914971499</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0.63678019932815</v>
       </c>
       <c r="AO4" s="3">
         <v>0.34216748455016599</v>
@@ -1687,19 +1734,19 @@
         <v>0.566215662156621</v>
       </c>
       <c r="AX4" s="3">
+        <v>0.90017513134851102</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0.749614197530864</v>
+      </c>
+      <c r="AZ4" s="3">
         <v>0.68454376163873298</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="BA4" s="3">
         <v>0.479393880899527</v>
       </c>
-      <c r="AZ4" s="3">
-        <v>0.90017513134851102</v>
-      </c>
-      <c r="BA4" s="3">
+      <c r="BB4" s="3">
         <v>0.59139784946236496</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0.749614197530864</v>
       </c>
       <c r="BC4" s="3">
         <v>0.49697717458358998</v>
@@ -1720,16 +1767,16 @@
         <v>0.44006762468300897</v>
       </c>
       <c r="BI4" s="2">
-        <v>3.1013037678807599E-4</v>
-      </c>
-      <c r="BJ4" s="10">
-        <v>3.1115389323070001E-4</v>
+        <v>1.51411029115072E-2</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>1.5200431183358201E-2</v>
       </c>
       <c r="BK4" s="2">
-        <v>6.9134576981868798E-2</v>
-      </c>
-      <c r="BL4" s="10">
-        <v>0.132273317734308</v>
+        <v>0.44538318200046201</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>0.48254839372790898</v>
       </c>
       <c r="BM4" s="2">
         <v>4.388988785124714</v>
@@ -1741,19 +1788,19 @@
         <v>4.5071539596558337</v>
       </c>
       <c r="BP4" s="2">
+        <v>3.0544215244625361</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>3.1990389881869472</v>
+      </c>
+      <c r="BR4" s="2">
         <v>2.8627036980629876</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BS4" s="2">
         <v>3.5202607604958955</v>
       </c>
-      <c r="BR4" s="2">
-        <v>3.0544215244625361</v>
-      </c>
-      <c r="BS4" s="2">
+      <c r="BT4" s="2">
         <v>3.4001423681519252</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>3.1990389881869472</v>
       </c>
       <c r="BU4" s="2">
         <v>3.4896505693546938</v>
@@ -1774,42 +1821,42 @@
         <v>3.4739728160618721</v>
       </c>
       <c r="CA4" s="2">
-        <v>8.71428571428571</v>
+        <v>8.3332999999999995</v>
       </c>
       <c r="CB4" s="2">
-        <v>8.6428571428571406</v>
+        <v>8.2222000000000008</v>
       </c>
       <c r="CC4" s="2">
-        <v>8.9285714285714306</v>
+        <v>7.5556000000000001</v>
       </c>
       <c r="CD4" s="2">
-        <v>7.9285714285714297</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="CE4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6">
         <v>0.46400000000000002</v>
@@ -1820,38 +1867,38 @@
       <c r="G5" s="6">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.63883769530000001</v>
+      <c r="H5" s="8">
+        <v>0.87010456140000003</v>
       </c>
       <c r="I5" s="8">
-        <v>0.54650084580000002</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.87010456140000003</v>
+        <v>0.72874490879999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.52390000000000003</v>
       </c>
       <c r="K5" s="8">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="L5" s="8">
         <v>0.69742788889999996</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.72874490879999998</v>
       </c>
       <c r="M5" s="8">
         <v>0.67404346879999999</v>
       </c>
       <c r="N5" s="8">
-        <v>0.78552788330000001</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="O5" s="7">
-        <v>0.74482443799999998</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="P5" s="7">
         <v>0.6067342349</v>
       </c>
       <c r="Q5" s="7">
-        <v>0.58315427350000004</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="R5" s="7">
-        <v>0.45556042819999998</v>
+        <v>0.4118</v>
       </c>
       <c r="S5" s="6">
         <v>0.46879999999999999</v>
@@ -1862,38 +1909,38 @@
       <c r="U5" s="6">
         <v>0.54710000000000003</v>
       </c>
-      <c r="V5" s="7">
-        <v>0.64033396539999998</v>
+      <c r="V5" s="8">
+        <v>0.87091258920000003</v>
       </c>
       <c r="W5" s="8">
-        <v>0.54901361989999997</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.87091258920000003</v>
+        <v>0.73090395450000001</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.52610000000000001</v>
       </c>
       <c r="Y5" s="8">
+        <v>0.4889</v>
+      </c>
+      <c r="Z5" s="8">
         <v>0.69891541830000004</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0.73090395450000001</v>
       </c>
       <c r="AA5" s="8">
         <v>0.67607504870000001</v>
       </c>
       <c r="AB5" s="8">
-        <v>0.78805120169999998</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AC5" s="7">
-        <v>0.74685119720000004</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="AD5" s="7">
         <v>0.60919445390000004</v>
       </c>
       <c r="AE5" s="7">
-        <v>0.58539096280000003</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="AF5" s="7">
-        <v>0.45892914540000002</v>
+        <v>0.41570000000000001</v>
       </c>
       <c r="AG5" s="6">
         <v>0.2276</v>
@@ -1904,38 +1951,38 @@
       <c r="AI5" s="6">
         <v>0.44379999999999997</v>
       </c>
-      <c r="AJ5" s="7">
-        <v>0.52761532769999997</v>
+      <c r="AJ5" s="8">
+        <v>0.94600398659999996</v>
       </c>
       <c r="AK5" s="8">
-        <v>0.36152317369999998</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>0.94600398659999996</v>
+        <v>0.50925248970000003</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0.36859999999999998</v>
       </c>
       <c r="AM5" s="8">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="AN5" s="8">
         <v>0.4932919436</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>0.50925248970000003</v>
       </c>
       <c r="AO5" s="8">
         <v>0.43658123840000002</v>
       </c>
       <c r="AP5" s="8">
-        <v>0.67958627530000004</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="AQ5" s="7">
-        <v>0.78132342759999995</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="AR5" s="7">
         <v>0.37481552489999997</v>
       </c>
       <c r="AS5" s="7">
-        <v>0.54556955350000003</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="AT5" s="7">
-        <v>0.34264064820000001</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="AU5" s="6">
         <v>0.5575</v>
@@ -1946,50 +1993,50 @@
       <c r="AW5" s="6">
         <v>0.60389999999999999</v>
       </c>
-      <c r="AX5" s="7">
-        <v>0.5350713842</v>
+      <c r="AX5" s="8">
+        <v>0.33940455339999998</v>
       </c>
       <c r="AY5" s="8">
-        <v>0.34542997780000001</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>0.33940455339999998</v>
+        <v>0.55709876540000003</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>0.47099999999999997</v>
       </c>
       <c r="BA5" s="8">
+        <v>0.4446</v>
+      </c>
+      <c r="BB5" s="8">
         <v>0.498076354</v>
-      </c>
-      <c r="BB5" s="8">
-        <v>0.55709876540000003</v>
       </c>
       <c r="BC5" s="8">
         <v>0.52140653920000002</v>
       </c>
       <c r="BD5" s="8">
-        <v>0.78367177789999998</v>
+        <v>0.4899</v>
       </c>
       <c r="BE5" s="7">
-        <v>0.1399339231</v>
+        <v>0.59950000000000003</v>
       </c>
       <c r="BF5" s="7">
         <v>0.30153908460000001</v>
       </c>
       <c r="BG5" s="7">
-        <v>0.47201392609999998</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="BH5" s="7">
-        <v>0.33643279799999998</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="BI5" s="2">
-        <v>9.9852954362782395E-2</v>
-      </c>
-      <c r="BJ5" s="10">
-        <v>0.10992389650027901</v>
+        <v>0.110573829350837</v>
+      </c>
+      <c r="BJ5" s="12">
+        <v>0.11097257445475001</v>
       </c>
       <c r="BK5" s="2">
-        <v>0.63326353092852405</v>
-      </c>
-      <c r="BL5" s="10">
-        <v>3.9415258894226401E-3</v>
+        <v>0.35578380385477798</v>
+      </c>
+      <c r="BL5" s="12">
+        <v>9.7318471016906397E-2</v>
       </c>
       <c r="BM5" s="7">
         <v>2.8573324964312685</v>
@@ -2001,19 +2048,19 @@
         <v>3.1038037209559568</v>
       </c>
       <c r="BP5" s="7">
+        <v>2.2124805877213731</v>
+      </c>
+      <c r="BQ5" s="7">
+        <v>2.1074474095236093</v>
+      </c>
+      <c r="BR5" s="7">
         <v>2.3343733187992051</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BS5" s="7">
         <v>2.4836586038374402</v>
       </c>
-      <c r="BR5" s="7">
-        <v>2.2124805877213731</v>
-      </c>
-      <c r="BS5" s="7">
+      <c r="BT5" s="7">
         <v>2.5092294127977781</v>
-      </c>
-      <c r="BT5" s="7">
-        <v>2.1074474095236093</v>
       </c>
       <c r="BU5" s="7">
         <v>2.4036523349113295</v>
@@ -2034,28 +2081,28 @@
         <v>2.2497607408879792</v>
       </c>
       <c r="CA5" s="2">
-        <v>6.71428571428571</v>
+        <v>7.1111000000000004</v>
       </c>
       <c r="CB5" s="2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="CC5" s="2">
-        <v>5.5714285714285703</v>
+        <v>7.4443999999999999</v>
       </c>
       <c r="CD5" s="2">
-        <v>10.9285714285714</v>
+        <v>9.7777999999999992</v>
       </c>
       <c r="CE5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2063,13 +2110,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7">
         <v>0.57491282470000005</v>
@@ -2081,19 +2128,19 @@
         <v>0.38114367519999998</v>
       </c>
       <c r="H6" s="7">
+        <v>0.82575723580000004</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.62867324790000001</v>
+      </c>
+      <c r="J6" s="7">
         <v>0.22770866740000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="K6" s="7">
         <v>0.30232920140000002</v>
       </c>
-      <c r="J6" s="7">
-        <v>0.82575723580000004</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>0.6260546749</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.62867324790000001</v>
       </c>
       <c r="M6" s="7">
         <v>0.61007973459999998</v>
@@ -2123,19 +2170,19 @@
         <v>0.38459009620000001</v>
       </c>
       <c r="V6" s="9">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="X6" s="9">
         <v>0.2316</v>
       </c>
-      <c r="W6" s="9">
+      <c r="Y6" s="9">
         <v>0.30669999999999997</v>
       </c>
-      <c r="X6" s="9">
-        <v>0.82689999999999997</v>
-      </c>
-      <c r="Y6" s="9">
+      <c r="Z6" s="9">
         <v>0.62809999999999999</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0.63170000000000004</v>
       </c>
       <c r="AA6" s="9">
         <v>0.61260000000000003</v>
@@ -2165,19 +2212,19 @@
         <v>0.14763542369999999</v>
       </c>
       <c r="AJ6" s="9">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="AL6" s="9">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="AK6" s="9">
+      <c r="AM6" s="9">
         <v>0.1229</v>
       </c>
-      <c r="AL6" s="9">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="AM6" s="9">
+      <c r="AN6" s="9">
         <v>0.4239</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>0.49049999999999999</v>
       </c>
       <c r="AO6" s="9">
         <v>0.57030000000000003</v>
@@ -2206,20 +2253,20 @@
       <c r="AW6" s="7">
         <v>0.40672406719999998</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="AZ6" s="9">
         <v>0.31969999999999998</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="BA6" s="9">
         <v>0.33900000000000002</v>
       </c>
-      <c r="AZ6" s="7">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="BA6" s="9">
+      <c r="BB6" s="9">
         <v>0.5232</v>
-      </c>
-      <c r="BB6" s="9">
-        <v>0.62809999999999999</v>
       </c>
       <c r="BC6" s="9">
         <v>0.63749999999999996</v>
@@ -2240,16 +2287,16 @@
         <v>0.45240000000000002</v>
       </c>
       <c r="BI6" s="2">
-        <v>2.4683991239960899E-4</v>
-      </c>
-      <c r="BJ6" s="10">
-        <v>2.4731677252153798E-4</v>
+        <v>3.972144206032E-3</v>
+      </c>
+      <c r="BJ6" s="12">
+        <v>3.9728463607110404E-3</v>
       </c>
       <c r="BK6" s="2">
-        <v>4.2029707715047198E-3</v>
-      </c>
-      <c r="BL6" s="10">
-        <v>1.9563708285381499E-2</v>
+        <v>9.2256718086769607E-2</v>
+      </c>
+      <c r="BL6" s="12">
+        <v>0.200291616527601</v>
       </c>
       <c r="BM6" s="7">
         <v>1.6789733759197651</v>
@@ -2261,19 +2308,19 @@
         <v>2.0442652999153195</v>
       </c>
       <c r="BP6" s="7">
+        <v>1.5778363412927441</v>
+      </c>
+      <c r="BQ6" s="7">
+        <v>1.4372747974101237</v>
+      </c>
+      <c r="BR6" s="7">
         <v>1.7040646794085674</v>
       </c>
-      <c r="BQ6" s="7">
+      <c r="BS6" s="7">
         <v>1.9177155165594935</v>
       </c>
-      <c r="BR6" s="7">
-        <v>1.5778363412927441</v>
-      </c>
-      <c r="BS6" s="7">
+      <c r="BT6" s="7">
         <v>1.9315087218666176</v>
-      </c>
-      <c r="BT6" s="7">
-        <v>1.4372747974101237</v>
       </c>
       <c r="BU6" s="7">
         <v>1.7136585162083564</v>
@@ -2294,28 +2341,28 @@
         <v>1.5521813388393357</v>
       </c>
       <c r="CA6" s="2">
-        <v>12.4285714285714</v>
+        <v>13</v>
       </c>
       <c r="CB6" s="2">
-        <v>12.3571428571429</v>
+        <v>12.8889</v>
       </c>
       <c r="CC6" s="2">
-        <v>10.8571428571429</v>
+        <v>9.2222000000000008</v>
       </c>
       <c r="CD6" s="2">
-        <v>9.3571428571428594</v>
+        <v>7.5556000000000001</v>
       </c>
       <c r="CE6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG6" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CH6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2323,13 +2370,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8">
         <v>0.60133777939999999</v>
@@ -2341,37 +2388,37 @@
         <v>0.53521735059999997</v>
       </c>
       <c r="H7" s="7">
+        <v>0.75429033940000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.76798037730000002</v>
+      </c>
+      <c r="J7" s="7">
         <v>0.62800518419999996</v>
       </c>
-      <c r="I7" s="7">
-        <v>0.59071084269999996</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.75429033940000001</v>
-      </c>
       <c r="K7" s="7">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="L7" s="7">
         <v>0.75429131019999995</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.76798037730000002</v>
       </c>
       <c r="M7" s="7">
         <v>0.70859723669999997</v>
       </c>
       <c r="N7" s="7">
-        <v>0.81436579450000002</v>
+        <v>0.7006</v>
       </c>
       <c r="O7" s="7">
         <v>0.67188081209999995</v>
       </c>
       <c r="P7" s="7">
-        <v>0.72859334909999995</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="Q7" s="7">
         <v>0.55846851239999995</v>
       </c>
       <c r="R7" s="7">
-        <v>0.50892412090000005</v>
+        <v>0.39079999999999998</v>
       </c>
       <c r="S7" s="8">
         <v>0.60409507029999998</v>
@@ -2383,37 +2430,37 @@
         <v>0.53746948770000003</v>
       </c>
       <c r="V7" s="7">
+        <v>0.75568005589999998</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0.76981180500000002</v>
+      </c>
+      <c r="X7" s="7">
         <v>0.62957264430000004</v>
       </c>
-      <c r="W7" s="7">
-        <v>0.59321411459999995</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0.75568005589999998</v>
-      </c>
       <c r="Y7" s="7">
+        <v>0.5212</v>
+      </c>
+      <c r="Z7" s="7">
         <v>0.75557751179999999</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0.76981180500000002</v>
       </c>
       <c r="AA7" s="7">
         <v>0.71053072520000005</v>
       </c>
       <c r="AB7" s="7">
-        <v>0.81665870969999999</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="AC7" s="7">
         <v>0.67452250540000003</v>
       </c>
       <c r="AD7" s="7">
-        <v>0.73051937509999998</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="AE7" s="7">
         <v>0.56093564269999996</v>
       </c>
       <c r="AF7" s="7">
-        <v>0.51215686810000005</v>
+        <v>0.3947</v>
       </c>
       <c r="AG7" s="8">
         <v>0.2972950057</v>
@@ -2425,37 +2472,37 @@
         <v>0.30929156870000002</v>
       </c>
       <c r="AJ7" s="7">
+        <v>0.63266270719999995</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.61043423490000004</v>
+      </c>
+      <c r="AL7" s="7">
         <v>0.43631890220000003</v>
       </c>
-      <c r="AK7" s="7">
-        <v>0.49525818189999998</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>0.63266270719999995</v>
-      </c>
       <c r="AM7" s="7">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="AN7" s="7">
         <v>0.55588460620000002</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>0.61043423490000004</v>
       </c>
       <c r="AO7" s="7">
         <v>0.46396644320000002</v>
       </c>
       <c r="AP7" s="7">
-        <v>0.67403140399999995</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="AQ7" s="7">
         <v>0.43017633420000001</v>
       </c>
       <c r="AR7" s="7">
-        <v>0.42932607569999998</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="AS7" s="7">
         <v>0.4448982896</v>
       </c>
       <c r="AT7" s="7">
-        <v>0.36357813150000001</v>
+        <v>0.1981</v>
       </c>
       <c r="AU7" s="8">
         <v>0.47200742340000001</v>
@@ -2467,49 +2514,49 @@
         <v>0.50369003690000003</v>
       </c>
       <c r="AX7" s="7">
+        <v>0.76602451839999997</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0.74459876540000003</v>
+      </c>
+      <c r="AZ7" s="7">
         <v>0.51409062689999996</v>
       </c>
-      <c r="AY7" s="7">
-        <v>0.64549753880000005</v>
-      </c>
-      <c r="AZ7" s="7">
-        <v>0.76602451839999997</v>
-      </c>
       <c r="BA7" s="7">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="BB7" s="7">
         <v>0.65088290419999995</v>
-      </c>
-      <c r="BB7" s="7">
-        <v>0.74459876540000003</v>
       </c>
       <c r="BC7" s="7">
         <v>0.59962985810000002</v>
       </c>
       <c r="BD7" s="7">
-        <v>0.77621218400000003</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="BE7" s="7">
         <v>0.64584887560000004</v>
       </c>
       <c r="BF7" s="7">
-        <v>0.62717699469999999</v>
+        <v>0.37709999999999999</v>
       </c>
       <c r="BG7" s="7">
         <v>0.61355115159999996</v>
       </c>
       <c r="BH7" s="7">
-        <v>0.57295012680000001</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="BI7" s="2">
-        <v>0.29573762746603499</v>
-      </c>
-      <c r="BJ7" s="10">
-        <v>0.29575162761266699</v>
+        <v>0.22807482004331001</v>
+      </c>
+      <c r="BJ7" s="12">
+        <v>0.228468279551409</v>
       </c>
       <c r="BK7" s="2">
-        <v>0.28072292331429599</v>
-      </c>
-      <c r="BL7" s="10">
-        <v>0.59842722267786896</v>
+        <v>0.41046588107902698</v>
+      </c>
+      <c r="BL7" s="12">
+        <v>0.47956390935202597</v>
       </c>
       <c r="BM7" s="7">
         <v>2.1394067704417923</v>
@@ -2521,19 +2568,19 @@
         <v>2.1422955882897634</v>
       </c>
       <c r="BP7" s="7">
+        <v>2.1496501130981152</v>
+      </c>
+      <c r="BQ7" s="7">
+        <v>2.0194071080188833</v>
+      </c>
+      <c r="BR7" s="7">
         <v>2.1877744551639848</v>
       </c>
-      <c r="BQ7" s="7">
+      <c r="BS7" s="7">
         <v>2.3383170188540965</v>
       </c>
-      <c r="BR7" s="7">
-        <v>2.1496501130981152</v>
-      </c>
-      <c r="BS7" s="7">
+      <c r="BT7" s="7">
         <v>2.5112147011363879</v>
-      </c>
-      <c r="BT7" s="7">
-        <v>2.0194071080188833</v>
       </c>
       <c r="BU7" s="7">
         <v>2.3440580724513018</v>
@@ -2554,28 +2601,28 @@
         <v>2.17906322239498</v>
       </c>
       <c r="CA7" s="2">
-        <v>5.0714285714285703</v>
+        <v>5.6666999999999996</v>
       </c>
       <c r="CB7" s="2">
-        <v>5.1428571428571397</v>
+        <v>5.6666999999999996</v>
       </c>
       <c r="CC7" s="2">
-        <v>6.28571428571429</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="CD7" s="2">
-        <v>5.5714285714285703</v>
+        <v>6</v>
       </c>
       <c r="CE7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2583,193 +2630,193 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3">
-        <v>0.57550000000000001</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>0.74760000000000004</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.70450000000000002</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="H8" s="3">
-        <v>0.62680000000000002</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="I8" s="3">
-        <v>0.54479999999999995</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="J8" s="3">
-        <v>0.78810000000000002</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="K8" s="3">
-        <v>0.72219999999999995</v>
+        <v>0.53820000000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>0.75449999999999995</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="M8" s="3">
-        <v>0.69430000000000003</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="N8" s="3">
-        <v>0.70389999999999997</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="O8" s="3">
-        <v>0.67430000000000001</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="P8" s="3">
-        <v>0.70540000000000003</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.52139999999999997</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="R8" s="3">
-        <v>0.45329999999999998</v>
+        <v>0.41710000000000003</v>
       </c>
       <c r="S8" s="3">
-        <v>0.57809999999999995</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="T8" s="3">
-        <v>0.74880000000000002</v>
+        <v>0.71319999999999995</v>
       </c>
       <c r="U8" s="3">
-        <v>0.70579999999999998</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="V8" s="3">
-        <v>0.62839999999999996</v>
+        <v>0.74370000000000003</v>
       </c>
       <c r="W8" s="3">
-        <v>0.54749999999999999</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="X8" s="3">
-        <v>0.78920000000000001</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="Y8" s="3">
-        <v>0.72360000000000002</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Z8" s="3">
-        <v>0.75629999999999997</v>
+        <v>0.67920000000000003</v>
       </c>
       <c r="AA8" s="3">
-        <v>0.69630000000000003</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="AB8" s="3">
-        <v>0.70750000000000002</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="AC8" s="3">
-        <v>0.67689999999999995</v>
+        <v>0.59540000000000004</v>
       </c>
       <c r="AD8" s="3">
-        <v>0.70740000000000003</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="AE8" s="3">
-        <v>0.52390000000000003</v>
+        <v>0.50570000000000004</v>
       </c>
       <c r="AF8" s="3">
-        <v>0.45669999999999999</v>
+        <v>0.42080000000000001</v>
       </c>
       <c r="AG8" s="3">
-        <v>0.30740000000000001</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="AH8" s="3">
-        <v>0.62019999999999997</v>
+        <v>0.57730000000000004</v>
       </c>
       <c r="AI8" s="3">
-        <v>0.59709999999999996</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="AJ8" s="3">
-        <v>0.43140000000000001</v>
+        <v>0.60040000000000004</v>
       </c>
       <c r="AK8" s="3">
-        <v>0.35799999999999998</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.62390000000000001</v>
+        <v>0.4274</v>
       </c>
       <c r="AM8" s="3">
-        <v>0.48280000000000001</v>
+        <v>0.3579</v>
       </c>
       <c r="AN8" s="3">
-        <v>0.62749999999999995</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="AO8" s="3">
-        <v>0.44750000000000001</v>
+        <v>0.44219999999999998</v>
       </c>
       <c r="AP8" s="3">
-        <v>0.52390000000000003</v>
+        <v>0.4783</v>
       </c>
       <c r="AQ8" s="3">
-        <v>0.46820000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.39179999999999998</v>
+        <v>0.30930000000000002</v>
       </c>
       <c r="AS8" s="3">
-        <v>0.35970000000000002</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="AT8" s="3">
-        <v>0.27779999999999999</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="AU8" s="3">
-        <v>0.49980000000000002</v>
+        <v>0.48930000000000001</v>
       </c>
       <c r="AV8" s="3">
-        <v>0.73519999999999996</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="AW8" s="3">
-        <v>0.72589999999999999</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AX8" s="3">
-        <v>0.49270000000000003</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="AY8" s="3">
-        <v>0.5302</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="AZ8" s="3">
-        <v>0.75760000000000005</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="BA8" s="3">
-        <v>0.59409999999999996</v>
+        <v>0.496</v>
       </c>
       <c r="BB8" s="3">
-        <v>0.72489999999999999</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="BC8" s="3">
-        <v>0.59119999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BD8" s="3">
-        <v>0.6855</v>
+        <v>0.55740000000000001</v>
       </c>
       <c r="BE8" s="3">
-        <v>0.71330000000000005</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="BF8" s="3">
-        <v>0.59289999999999998</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="BG8" s="3">
-        <v>0.47799999999999998</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="BH8" s="3">
-        <v>0.46800000000000003</v>
+        <v>0.3851</v>
       </c>
       <c r="BI8" s="2">
-        <v>0.203484310018166</v>
-      </c>
-      <c r="BJ8" s="10">
-        <v>0.20311038113330299</v>
+        <v>8.66561100695529E-2</v>
+      </c>
+      <c r="BJ8" s="12">
+        <v>8.6107866919599305E-2</v>
       </c>
       <c r="BK8" s="2">
-        <v>0.18571595511796901</v>
-      </c>
-      <c r="BL8" s="10">
-        <v>0.39941837458297302</v>
+        <v>5.3859139974667798E-2</v>
+      </c>
+      <c r="BL8" s="12">
+        <v>2.0995562559789901E-2</v>
       </c>
       <c r="BM8" s="2">
         <v>3.0765567074081313</v>
@@ -2781,19 +2828,19 @@
         <v>3.2643195147635859</v>
       </c>
       <c r="BP8" s="2">
+        <v>2.9607751051300943</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>2.9052398434281299</v>
+      </c>
+      <c r="BR8" s="2">
         <v>3.3400810595233228</v>
       </c>
-      <c r="BQ8" s="2">
+      <c r="BS8" s="2">
         <v>3.4388412683213532</v>
       </c>
-      <c r="BR8" s="2">
-        <v>2.9607751051300943</v>
-      </c>
-      <c r="BS8" s="2">
+      <c r="BT8" s="2">
         <v>3.4277392114840821</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>2.9052398434281299</v>
       </c>
       <c r="BU8" s="2">
         <v>3.2373526869790945</v>
@@ -2814,28 +2861,28 @@
         <v>3.0995149009411387</v>
       </c>
       <c r="CA8" s="2">
-        <v>5.71428571428571</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="CB8" s="2">
-        <v>5.6428571428571397</v>
+        <v>6.4443999999999999</v>
       </c>
       <c r="CC8" s="2">
-        <v>6.5</v>
+        <v>7.5556000000000001</v>
       </c>
       <c r="CD8" s="2">
-        <v>5.78571428571429</v>
+        <v>8.3332999999999995</v>
       </c>
       <c r="CE8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2843,13 +2890,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3">
         <v>0.56220000000000003</v>
@@ -2861,19 +2908,19 @@
         <v>0.48688721065456603</v>
       </c>
       <c r="H9" s="3">
+        <v>0.60425184111445096</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.53877460989922299</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.28026163828066802</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>0.26340778366672402</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.60425184111445096</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>0.46164471422199899</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.53877460989922299</v>
       </c>
       <c r="M9" s="3">
         <v>0.48393980893701399</v>
@@ -2903,19 +2950,19 @@
         <v>0.48915371623035098</v>
       </c>
       <c r="V9" s="3">
+        <v>0.60637654381445405</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.54232017606853</v>
+      </c>
+      <c r="X9" s="3">
         <v>0.28320608400102598</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>0.26776474344880502</v>
       </c>
-      <c r="X9" s="3">
-        <v>0.60637654381445405</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>0.46435139332303499</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.54232017606853</v>
       </c>
       <c r="AA9" s="3">
         <v>0.48734072964548297</v>
@@ -2945,19 +2992,19 @@
         <v>0.36579682373736999</v>
       </c>
       <c r="AJ9" s="3">
+        <v>0.42445404686920302</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0.37122771196871901</v>
+      </c>
+      <c r="AL9" s="3">
         <v>0.14747546786470001</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AM9" s="3">
         <v>0.113634491400499</v>
       </c>
-      <c r="AL9" s="3">
-        <v>0.42445404686920302</v>
-      </c>
-      <c r="AM9" s="3">
+      <c r="AN9" s="3">
         <v>0.23559267266940401</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>0.37122771196871901</v>
       </c>
       <c r="AO9" s="3">
         <v>0.31282261934490402</v>
@@ -2987,19 +3034,19 @@
         <v>0.53034030340303395</v>
       </c>
       <c r="AX9" s="3">
+        <v>0.60280210157618197</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="AZ9" s="3">
         <v>0.28144009931719399</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="BA9" s="3">
         <v>0.24669433452369399</v>
       </c>
-      <c r="AZ9" s="3">
-        <v>0.60280210157618197</v>
-      </c>
-      <c r="BA9" s="3">
+      <c r="BB9" s="3">
         <v>0.34004143237644202</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>0.48611111111111099</v>
       </c>
       <c r="BC9" s="3">
         <v>0.39864281307834598</v>
@@ -3019,17 +3066,17 @@
       <c r="BH9" s="3">
         <v>0.2034</v>
       </c>
-      <c r="BI9">
-        <v>6.4256514139921602E-7</v>
-      </c>
-      <c r="BJ9">
-        <v>6.4018865049440005E-7</v>
-      </c>
-      <c r="BK9">
-        <v>4.65034263443079E-7</v>
-      </c>
-      <c r="BL9">
-        <v>3.9967474327254702E-8</v>
+      <c r="BI9" s="11">
+        <v>5.5473577757480803E-5</v>
+      </c>
+      <c r="BJ9" s="11">
+        <v>5.5408284042061602E-5</v>
+      </c>
+      <c r="BK9" s="11">
+        <v>1.6849343521463399E-5</v>
+      </c>
+      <c r="BL9" s="11">
+        <v>2.2133818111219001E-5</v>
       </c>
       <c r="BM9" s="4">
         <v>3.7441364524012473</v>
@@ -3041,19 +3088,19 @@
         <v>3.7808931086870787</v>
       </c>
       <c r="BP9" s="4">
+        <v>3.6904796083440536</v>
+      </c>
+      <c r="BQ9" s="4">
+        <v>3.5572207859113569</v>
+      </c>
+      <c r="BR9" s="4">
         <v>3.719545894772645</v>
       </c>
-      <c r="BQ9" s="4">
+      <c r="BS9" s="4">
         <v>4.0467604204621042</v>
       </c>
-      <c r="BR9" s="4">
-        <v>3.6904796083440536</v>
-      </c>
-      <c r="BS9" s="4">
+      <c r="BT9" s="4">
         <v>4.0883267818748807</v>
-      </c>
-      <c r="BT9" s="4">
-        <v>3.5572207859113569</v>
       </c>
       <c r="BU9" s="4">
         <v>3.9055125524366039</v>
@@ -3074,28 +3121,28 @@
         <v>3.7710418819554414</v>
       </c>
       <c r="CA9" s="2">
-        <v>15.9285714285714</v>
+        <v>16.1111</v>
       </c>
       <c r="CB9" s="2">
-        <v>15.9285714285714</v>
+        <v>16.1111</v>
       </c>
       <c r="CC9" s="2">
-        <v>15.3571428571429</v>
+        <v>16</v>
       </c>
       <c r="CD9" s="2">
-        <v>15.4285714285714</v>
+        <v>16.333300000000001</v>
       </c>
       <c r="CE9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3103,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3">
         <v>0.20369999999999999</v>
@@ -3121,19 +3168,19 @@
         <v>0.37609999999999999</v>
       </c>
       <c r="H10" s="3">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="J10" s="3">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="J10" s="3">
-        <v>0.31169999999999998</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>0.54830000000000001</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.52780000000000005</v>
       </c>
       <c r="M10" s="3">
         <v>0.56310000000000004</v>
@@ -3163,19 +3210,19 @@
         <v>0.37880000000000003</v>
       </c>
       <c r="V10" s="3">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="X10" s="3">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="X10" s="3">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>0.55049999999999999</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0.53120000000000001</v>
       </c>
       <c r="AA10" s="3">
         <v>0.56579999999999997</v>
@@ -3205,19 +3252,19 @@
         <v>0.21190000000000001</v>
       </c>
       <c r="AJ10" s="2">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="AL10" s="2">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AM10" s="2">
         <v>1.18E-2</v>
       </c>
-      <c r="AL10" s="2">
-        <v>0.16070000000000001</v>
-      </c>
-      <c r="AM10" s="2">
+      <c r="AN10" s="2">
         <v>0.30120000000000002</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>0.33660000000000001</v>
       </c>
       <c r="AO10" s="2">
         <v>0.26440000000000002</v>
@@ -3247,19 +3294,19 @@
         <v>0.40649999999999997</v>
       </c>
       <c r="AX10" s="3">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="AZ10" s="3">
         <v>0.2185</v>
       </c>
-      <c r="AY10" s="3">
+      <c r="BA10" s="3">
         <v>0.14960000000000001</v>
       </c>
-      <c r="AZ10" s="3">
-        <v>0.46550000000000002</v>
-      </c>
-      <c r="BA10" s="3">
+      <c r="BB10" s="3">
         <v>0.43580000000000002</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>0.49690000000000001</v>
       </c>
       <c r="BC10" s="3">
         <v>0.42209999999999998</v>
@@ -3279,17 +3326,17 @@
       <c r="BH10" s="3">
         <v>0.33679999999999999</v>
       </c>
-      <c r="BI10">
-        <v>5.05355150209667E-6</v>
-      </c>
-      <c r="BJ10">
-        <v>5.0732841744691603E-6</v>
-      </c>
-      <c r="BK10">
-        <v>8.55100189068349E-4</v>
-      </c>
-      <c r="BL10">
-        <v>7.2451431997492199E-4</v>
+      <c r="BI10" s="11">
+        <v>9.0964323726716405E-4</v>
+      </c>
+      <c r="BJ10" s="11">
+        <v>9.19080118661463E-4</v>
+      </c>
+      <c r="BK10" s="11">
+        <v>3.8990623435260899E-2</v>
+      </c>
+      <c r="BL10" s="11">
+        <v>3.49837164030498E-2</v>
       </c>
       <c r="BM10" s="2">
         <v>2.6156134218696385</v>
@@ -3301,19 +3348,19 @@
         <v>2.6989613183595207</v>
       </c>
       <c r="BP10" s="2">
+        <v>2.7582455641689374</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>2.5299434016586693</v>
+      </c>
+      <c r="BR10" s="2">
         <v>2.5541983215654236</v>
       </c>
-      <c r="BQ10" s="2">
+      <c r="BS10" s="2">
         <v>2.9402325069540938</v>
       </c>
-      <c r="BR10" s="2">
-        <v>2.7582455641689374</v>
-      </c>
-      <c r="BS10" s="2">
+      <c r="BT10" s="2">
         <v>3.0289777052087778</v>
-      </c>
-      <c r="BT10" s="2">
-        <v>2.5299434016586693</v>
       </c>
       <c r="BU10" s="2">
         <v>2.893206753059848</v>
@@ -3334,28 +3381,28 @@
         <v>2.7006604585681715</v>
       </c>
       <c r="CA10" s="2">
-        <v>16.214285714285701</v>
+        <v>14.777799999999999</v>
       </c>
       <c r="CB10" s="2">
-        <v>16</v>
+        <v>14.666700000000001</v>
       </c>
       <c r="CC10" s="2">
-        <v>16.071428571428601</v>
+        <v>14.4444</v>
       </c>
       <c r="CD10" s="2">
-        <v>15.285714285714301</v>
+        <v>13.777799999999999</v>
       </c>
       <c r="CE10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3363,193 +3410,193 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3">
-        <v>0.61680000000000001</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>0.627</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="G11" s="3">
-        <v>0.69179999999999997</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="H11" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="I11" s="3">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.64259999999999995</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.72609999999999997</v>
-      </c>
       <c r="L11" s="3">
-        <v>0.62070000000000003</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="M11" s="3">
-        <v>0.67979999999999996</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="N11" s="3">
         <v>0.69189999999999996</v>
       </c>
       <c r="O11" s="3">
-        <v>0.57569999999999999</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="P11" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.46210000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="R11" s="3">
-        <v>0.4178</v>
+        <v>0.40660000000000002</v>
       </c>
       <c r="S11" s="3">
-        <v>0.61919999999999997</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="T11" s="3">
-        <v>0.62880000000000003</v>
+        <v>0.5131</v>
       </c>
       <c r="U11" s="3">
-        <v>0.69310000000000005</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="V11" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>0.58179999999999998</v>
       </c>
       <c r="W11" s="3">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="X11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y11" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="X11" s="3">
-        <v>0.64459999999999995</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0.72750000000000004</v>
-      </c>
       <c r="Z11" s="3">
-        <v>0.62360000000000004</v>
+        <v>0.70520000000000005</v>
       </c>
       <c r="AA11" s="3">
-        <v>0.68189999999999995</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="AB11" s="3">
         <v>0.69589999999999996</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.57879999999999998</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="AD11" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="AE11" s="3">
-        <v>0.46500000000000002</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="AF11" s="3">
-        <v>0.42159999999999997</v>
+        <v>0.4103</v>
       </c>
       <c r="AG11" s="3">
-        <v>0.45150000000000001</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="AH11" s="3">
-        <v>0.49330000000000002</v>
+        <v>0.2984</v>
       </c>
       <c r="AI11" s="3">
-        <v>0.61880000000000002</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="AJ11" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>0.439</v>
       </c>
       <c r="AK11" s="3">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AM11" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AL11" s="3">
-        <v>0.63519999999999999</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>0.5494</v>
-      </c>
       <c r="AN11" s="3">
-        <v>0.49220000000000003</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="AO11" s="3">
-        <v>0.49459999999999998</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="AP11" s="3">
         <v>0.53620000000000001</v>
       </c>
       <c r="AQ11" s="3">
-        <v>0.28260000000000002</v>
+        <v>0.2205</v>
       </c>
       <c r="AR11" s="3">
-        <v>-4.0000000000000002E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AS11" s="3">
-        <v>0.32140000000000002</v>
+        <v>0.31019999999999998</v>
       </c>
       <c r="AT11" s="3">
-        <v>0.27189999999999998</v>
+        <v>0.25879999999999997</v>
       </c>
       <c r="AU11" s="3">
-        <v>0.62360000000000004</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="AV11" s="3">
-        <v>0.57030000000000003</v>
+        <v>0.40610000000000002</v>
       </c>
       <c r="AW11" s="3">
-        <v>0.76770000000000005</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="AX11" s="3">
-        <v>0.16159999999999999</v>
+        <v>0.56389999999999996</v>
       </c>
       <c r="AY11" s="3">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="BA11" s="3">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="AZ11" s="3">
-        <v>0.7208</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>0.66410000000000002</v>
-      </c>
       <c r="BB11" s="3">
-        <v>0.63929999999999998</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="BC11" s="3">
-        <v>0.63039999999999996</v>
+        <v>0.58379999999999999</v>
       </c>
       <c r="BD11" s="3">
         <v>0.58720000000000006</v>
       </c>
       <c r="BE11" s="3">
-        <v>0.43990000000000001</v>
+        <v>0.36820000000000003</v>
       </c>
       <c r="BF11" s="3">
-        <v>0.15859999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="BG11" s="3">
-        <v>0.47549999999999998</v>
+        <v>0.46529999999999999</v>
       </c>
       <c r="BH11" s="3">
-        <v>0.44500000000000001</v>
+        <v>0.4289</v>
       </c>
       <c r="BI11" s="2">
-        <v>9.1035075131880392E-3</v>
-      </c>
-      <c r="BJ11" s="10">
-        <v>9.11771323330972E-3</v>
+        <v>2.6199148732067499E-2</v>
+      </c>
+      <c r="BJ11" s="12">
+        <v>2.6212676001543998E-2</v>
       </c>
       <c r="BK11" s="2">
-        <v>1.51962928768779E-2</v>
-      </c>
-      <c r="BL11" s="10">
-        <v>1.5727078375682501E-2</v>
+        <v>3.7157203344979101E-2</v>
+      </c>
+      <c r="BL11" s="12">
+        <v>1.9733341355291902E-2</v>
       </c>
       <c r="BM11" s="2">
         <v>3.2149471131160223</v>
@@ -3561,19 +3608,19 @@
         <v>3.6066070535907082</v>
       </c>
       <c r="BP11" s="2">
+        <v>3.1007219746149195</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>3.020796188104522</v>
+      </c>
+      <c r="BR11" s="2">
         <v>3.2378828982396923</v>
       </c>
-      <c r="BQ11" s="2">
+      <c r="BS11" s="2">
         <v>3.6581469135697056</v>
       </c>
-      <c r="BR11" s="2">
-        <v>3.1007219746149195</v>
-      </c>
-      <c r="BS11" s="2">
+      <c r="BT11" s="2">
         <v>3.4062352156896427</v>
-      </c>
-      <c r="BT11" s="2">
-        <v>3.020796188104522</v>
       </c>
       <c r="BU11" s="2">
         <v>3.5593151991699825</v>
@@ -3594,28 +3641,28 @@
         <v>3.314814887210721</v>
       </c>
       <c r="CA11" s="2">
-        <v>10.6428571428571</v>
+        <v>11.222200000000001</v>
       </c>
       <c r="CB11" s="2">
-        <v>10.5714285714286</v>
+        <v>11.222200000000001</v>
       </c>
       <c r="CC11" s="2">
-        <v>9.5</v>
+        <v>10.777799999999999</v>
       </c>
       <c r="CD11" s="2">
-        <v>9.4285714285714306</v>
+        <v>11.666700000000001</v>
       </c>
       <c r="CE11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CF11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CG11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="CH11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3623,193 +3670,193 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3">
-        <v>0.67730000000000001</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="F12" s="3">
-        <v>0.63739999999999997</v>
+        <v>0.63380000000000003</v>
       </c>
       <c r="G12" s="3">
-        <v>0.56830000000000003</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="H12" s="3">
-        <v>1E-4</v>
+        <v>0.6391</v>
       </c>
       <c r="I12" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="J12" s="3">
-        <v>0.69350000000000001</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="K12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L12" s="3">
         <v>0.65610000000000002</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.63970000000000005</v>
       </c>
       <c r="M12" s="3">
         <v>0.5988</v>
       </c>
       <c r="N12" s="3">
-        <v>0.58699999999999997</v>
+        <v>0.5796</v>
       </c>
       <c r="O12" s="3">
         <v>0.58819999999999995</v>
       </c>
       <c r="P12" s="3">
-        <v>-2.9999999999999997E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.49370000000000003</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="R12" s="3">
         <v>0.41099999999999998</v>
       </c>
       <c r="S12" s="3">
-        <v>0.67920000000000003</v>
+        <v>0.66849999999999998</v>
       </c>
       <c r="T12" s="3">
-        <v>0.6391</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="U12" s="3">
-        <v>0.57020000000000004</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="V12" s="3">
-        <v>4.1999999999999997E-3</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="W12" s="3">
-        <v>6.1999999999999998E-3</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="X12" s="3">
-        <v>0.69520000000000004</v>
+        <v>3.8E-3</v>
       </c>
       <c r="Y12" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Z12" s="3">
         <v>0.65790000000000004</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0.64239999999999997</v>
       </c>
       <c r="AA12" s="3">
         <v>0.60140000000000005</v>
       </c>
       <c r="AB12" s="3">
-        <v>0.59199999999999997</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="AC12" s="3">
         <v>0.59099999999999997</v>
       </c>
       <c r="AD12" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="AE12" s="3">
-        <v>0.49630000000000002</v>
+        <v>0.49409999999999998</v>
       </c>
       <c r="AF12" s="3">
         <v>0.41470000000000001</v>
       </c>
       <c r="AG12" s="3">
-        <v>0.58120000000000005</v>
+        <v>0.56220000000000003</v>
       </c>
       <c r="AH12" s="3">
-        <v>0.53710000000000002</v>
+        <v>0.5383</v>
       </c>
       <c r="AI12" s="3">
-        <v>0.46260000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AJ12" s="3">
-        <v>-4.0000000000000002E-4</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="AK12" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>0.41449999999999998</v>
       </c>
       <c r="AL12" s="3">
-        <v>0.5534</v>
+        <v>-1E-4</v>
       </c>
       <c r="AM12" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AN12" s="3">
         <v>0.40410000000000001</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0.41449999999999998</v>
       </c>
       <c r="AO12" s="3">
         <v>0.3206</v>
       </c>
       <c r="AP12" s="3">
-        <v>0.34820000000000001</v>
+        <v>0.3095</v>
       </c>
       <c r="AQ12" s="3">
         <v>0.16450000000000001</v>
       </c>
       <c r="AR12" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="AS12" s="3">
-        <v>0.25950000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AT12" s="3">
         <v>0.23050000000000001</v>
       </c>
       <c r="AU12" s="3">
-        <v>0.71450000000000002</v>
+        <v>0.67090000000000005</v>
       </c>
       <c r="AV12" s="3">
-        <v>0.68540000000000001</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="AW12" s="3">
-        <v>0.64449999999999996</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="AX12" s="3">
-        <v>0.11409999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="AY12" s="3">
-        <v>7.4099999999999999E-2</v>
+        <v>0.5413</v>
       </c>
       <c r="AZ12" s="3">
-        <v>0.61019999999999996</v>
+        <v>0.1018</v>
       </c>
       <c r="BA12" s="3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="BB12" s="3">
         <v>0.52900000000000003</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>0.5413</v>
       </c>
       <c r="BC12" s="3">
         <v>0.45219999999999999</v>
       </c>
       <c r="BD12" s="3">
-        <v>0.44090000000000001</v>
+        <v>0.4148</v>
       </c>
       <c r="BE12" s="3">
         <v>0.36049999999999999</v>
       </c>
       <c r="BF12" s="3">
-        <v>0.1134</v>
+        <v>0.1123</v>
       </c>
       <c r="BG12" s="3">
-        <v>0.40329999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="BH12" s="3">
         <v>0.40339999999999998</v>
       </c>
       <c r="BI12" s="2">
-        <v>4.7812802222422703E-3</v>
-      </c>
-      <c r="BJ12" s="10">
-        <v>4.7835992494596503E-3</v>
+        <v>1.6697476338819298E-2</v>
+      </c>
+      <c r="BJ12" s="12">
+        <v>1.6706444210712799E-2</v>
       </c>
       <c r="BK12" s="2">
-        <v>6.6094363316350599E-4</v>
-      </c>
-      <c r="BL12" s="10">
-        <v>1.4109112686443699E-3</v>
+        <v>5.3741620190093696E-3</v>
+      </c>
+      <c r="BL12" s="12">
+        <v>4.9383724962510402E-3</v>
       </c>
       <c r="BM12" s="2">
         <v>1.9632209865229884</v>
@@ -3821,19 +3868,19 @@
         <v>2.1932637730013513</v>
       </c>
       <c r="BP12" s="2">
+        <v>1.8477576883923312</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>1.7956715059460218</v>
+      </c>
+      <c r="BR12" s="2">
         <v>2.3921867532870635</v>
       </c>
-      <c r="BQ12" s="2">
+      <c r="BS12" s="2">
         <v>2.5447871366939112</v>
       </c>
-      <c r="BR12" s="2">
-        <v>1.8477576883923312</v>
-      </c>
-      <c r="BS12" s="2">
+      <c r="BT12" s="2">
         <v>2.3690859208215076</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>1.7956715059460218</v>
       </c>
       <c r="BU12" s="2">
         <v>2.3066394410242617</v>
@@ -3854,28 +3901,28 @@
         <v>2.0308425028249171</v>
       </c>
       <c r="CA12" s="2">
-        <v>11.714285714285699</v>
+        <v>13.222200000000001</v>
       </c>
       <c r="CB12" s="2">
-        <v>11.6428571428571</v>
+        <v>13</v>
       </c>
       <c r="CC12" s="2">
-        <v>12.5</v>
+        <v>14.5556</v>
       </c>
       <c r="CD12" s="2">
-        <v>12.5</v>
+        <v>14.777799999999999</v>
       </c>
       <c r="CE12" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CF12" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="CG12" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH12" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3883,193 +3930,193 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7">
-        <v>0.3991667713</v>
+        <v>0.3876</v>
       </c>
       <c r="F13" s="7">
         <v>0.61969373459999999</v>
       </c>
       <c r="G13" s="7">
-        <v>0.41347332510000001</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="H13" s="7">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.64451980340000004</v>
+      </c>
+      <c r="J13" s="7">
         <v>0.53155915340000004</v>
       </c>
-      <c r="I13" s="7">
-        <v>0.4844848678</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.4675665436</v>
-      </c>
       <c r="K13" s="7">
-        <v>0.60550336940000005</v>
+        <v>0.4511</v>
       </c>
       <c r="L13" s="7">
-        <v>0.64451980340000004</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="M13" s="7">
         <v>0.57917574589999998</v>
       </c>
       <c r="N13" s="7">
-        <v>0.59324899170000001</v>
+        <v>0.57569999999999999</v>
       </c>
       <c r="O13" s="7">
-        <v>0.45515195679999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="P13" s="7">
-        <v>0.66667687350000004</v>
+        <v>0.63280000000000003</v>
       </c>
       <c r="Q13" s="7">
         <v>0.5333718395</v>
       </c>
       <c r="R13" s="7">
-        <v>0.2404319385</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="S13" s="7">
-        <v>0.40286436149999999</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="T13" s="7">
         <v>0.6213941637</v>
       </c>
       <c r="U13" s="7">
-        <v>0.41610583779999999</v>
+        <v>0.314</v>
       </c>
       <c r="V13" s="7">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0.6472</v>
+      </c>
+      <c r="X13" s="7">
         <v>0.53349764769999997</v>
       </c>
-      <c r="W13" s="7">
-        <v>0.48755895710000002</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0.47044092230000001</v>
-      </c>
       <c r="Y13" s="7">
-        <v>0.6075086355</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="Z13" s="7">
-        <v>0.64719333099999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="AA13" s="7">
         <v>0.58189477609999996</v>
       </c>
       <c r="AB13" s="7">
-        <v>0.59815937630000005</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="AC13" s="7">
-        <v>0.45885337230000001</v>
+        <v>0.41689999999999999</v>
       </c>
       <c r="AD13" s="7">
-        <v>0.66894201509999995</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="AE13" s="7">
         <v>0.22825902870000001</v>
       </c>
       <c r="AF13" s="7">
-        <v>0.24534321989999999</v>
+        <v>0.1482</v>
       </c>
       <c r="AG13" s="7">
-        <v>0.1917913738</v>
+        <v>0.18809999999999999</v>
       </c>
       <c r="AH13" s="7">
         <v>0.50614300000000001</v>
       </c>
       <c r="AI13" s="7">
-        <v>0.23458575970000001</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="AJ13" s="7">
+        <v>0.3135</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0.50109493140000005</v>
+      </c>
+      <c r="AL13" s="7">
         <v>0.35716056019999998</v>
       </c>
-      <c r="AK13" s="7">
-        <v>0.33142710479999998</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>0.33750317940000002</v>
-      </c>
       <c r="AM13" s="7">
-        <v>0.3997404289</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="AN13" s="7">
-        <v>0.50109493140000005</v>
+        <v>0.3679</v>
       </c>
       <c r="AO13" s="7">
         <v>0.39198824290000001</v>
       </c>
       <c r="AP13" s="7">
-        <v>0.46255915399999997</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="AQ13" s="7">
-        <v>0.18976765230000001</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="AR13" s="7">
-        <v>0.30601349960000002</v>
+        <v>0.2747</v>
       </c>
       <c r="AS13" s="7">
         <v>0.1052918848</v>
       </c>
       <c r="AT13" s="7">
-        <v>9.75879833E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="AU13" s="7">
-        <v>0.41973399319999999</v>
+        <v>0.41909999999999997</v>
       </c>
       <c r="AV13" s="7">
         <v>0.68793803019999999</v>
       </c>
       <c r="AW13" s="7">
-        <v>0.41943419430000001</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="AX13" s="7">
+        <v>0.4743</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>0.649691358</v>
+      </c>
+      <c r="AZ13" s="7">
         <v>0.47411545620000001</v>
       </c>
-      <c r="AY13" s="7">
-        <v>0.4469645787</v>
-      </c>
-      <c r="AZ13" s="7">
-        <v>0.476357268</v>
-      </c>
       <c r="BA13" s="7">
-        <v>0.53082766100000001</v>
+        <v>0.4239</v>
       </c>
       <c r="BB13" s="7">
-        <v>0.649691358</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="BC13" s="7">
         <v>0.47390499689999999</v>
       </c>
       <c r="BD13" s="7">
-        <v>0.50973891419999995</v>
+        <v>0.52510000000000001</v>
       </c>
       <c r="BE13" s="7">
-        <v>0.31972716620000002</v>
+        <v>0.30259999999999998</v>
       </c>
       <c r="BF13" s="7">
-        <v>0.523491292</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="BG13" s="7">
         <v>0.47321906800000002</v>
       </c>
       <c r="BH13" s="7">
-        <v>0.24902789519999999</v>
-      </c>
-      <c r="BI13">
-        <v>9.2404919537092701E-5</v>
-      </c>
-      <c r="BJ13">
-        <v>5.2553063260660404E-6</v>
-      </c>
-      <c r="BK13">
-        <v>2.62045121096137E-4</v>
-      </c>
-      <c r="BL13">
-        <v>3.4585005777103901E-4</v>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="BI13" s="11">
+        <v>1.5921420867497499E-3</v>
+      </c>
+      <c r="BJ13" s="11">
+        <v>1.85423493732047E-5</v>
+      </c>
+      <c r="BK13" s="11">
+        <v>4.9183050138017199E-7</v>
+      </c>
+      <c r="BL13" s="11">
+        <v>4.8257002085629503E-4</v>
       </c>
       <c r="BM13" s="7">
         <v>3.9829127006027174</v>
@@ -4081,19 +4128,19 @@
         <v>4.2085337954254687</v>
       </c>
       <c r="BP13" s="7">
+        <v>3.9009883534712584</v>
+      </c>
+      <c r="BQ13" s="7">
+        <v>3.7577588016456618</v>
+      </c>
+      <c r="BR13" s="7">
         <v>4.4884752724323631</v>
       </c>
-      <c r="BQ13" s="7">
+      <c r="BS13" s="7">
         <v>4.5026331561263238</v>
       </c>
-      <c r="BR13" s="7">
-        <v>3.9009883534712584</v>
-      </c>
-      <c r="BS13" s="7">
+      <c r="BT13" s="7">
         <v>4.466800321728865</v>
-      </c>
-      <c r="BT13" s="7">
-        <v>3.7577588016456618</v>
       </c>
       <c r="BU13" s="7">
         <v>4.3118404994587465</v>
@@ -4114,28 +4161,28 @@
         <v>4.0532455954713864</v>
       </c>
       <c r="CA13" s="2">
-        <v>12.214285714285699</v>
+        <v>11.666700000000001</v>
       </c>
       <c r="CB13" s="2">
-        <v>12.9285714285714</v>
+        <v>13</v>
       </c>
       <c r="CC13" s="2">
-        <v>12.8571428571429</v>
+        <v>12.333299999999999</v>
       </c>
       <c r="CD13" s="2">
-        <v>11.8571428571429</v>
+        <v>11.222200000000001</v>
       </c>
       <c r="CE13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4143,193 +4190,193 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3">
-        <v>0.58320000000000005</v>
+        <v>0.4047</v>
       </c>
       <c r="F14" s="3">
-        <v>0.70189999999999997</v>
+        <v>0.34410000000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>0.56369999999999998</v>
+        <v>0.50480000000000003</v>
       </c>
       <c r="H14" s="3">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.71789999999999998</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.77439999999999998</v>
-      </c>
       <c r="L14" s="3">
-        <v>0.80379999999999996</v>
+        <v>0.77410000000000001</v>
       </c>
       <c r="M14" s="3">
-        <v>0.74470000000000003</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="N14" s="3">
-        <v>0.84250000000000003</v>
+        <v>0.81159999999999999</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0.75460000000000005</v>
+        <v>0.71160000000000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.61050000000000004</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="R14" s="3">
-        <v>0.53739999999999999</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="S14" s="3">
-        <v>0.58599999999999997</v>
+        <v>0.40949999999999998</v>
       </c>
       <c r="T14" s="3">
-        <v>0.70320000000000005</v>
+        <v>0.3478</v>
       </c>
       <c r="U14" s="3">
-        <v>0.56579999999999997</v>
+        <v>0.50729999999999997</v>
       </c>
       <c r="V14" s="3">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.8054</v>
+      </c>
+      <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
-        <v>0.7198</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.77559999999999996</v>
-      </c>
       <c r="Z14" s="3">
-        <v>0.8054</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="AA14" s="3">
-        <v>0.74639999999999995</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="AB14" s="3">
-        <v>0.84460000000000002</v>
+        <v>0.81410000000000005</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
       <c r="AD14" s="3">
-        <v>0.75649999999999995</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="AE14" s="3">
-        <v>0.61280000000000001</v>
+        <v>0.56910000000000005</v>
       </c>
       <c r="AF14" s="3">
-        <v>0.54059999999999997</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.29189999999999999</v>
+        <v>0.1242</v>
       </c>
       <c r="AH14" s="3">
-        <v>0.55840000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AI14" s="3">
-        <v>0.39269999999999999</v>
+        <v>0.26960000000000001</v>
       </c>
       <c r="AJ14" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="AL14" s="3">
         <v>0</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AM14" s="3">
         <v>0</v>
       </c>
-      <c r="AL14" s="3">
-        <v>0.79059999999999997</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>0.75070000000000003</v>
-      </c>
       <c r="AN14" s="3">
-        <v>0.77390000000000003</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="AO14" s="3">
-        <v>0.59379999999999999</v>
+        <v>0.61580000000000001</v>
       </c>
       <c r="AP14" s="3">
-        <v>0.83779999999999999</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="AQ14" s="3">
         <v>0</v>
       </c>
       <c r="AR14" s="3">
-        <v>0.70940000000000003</v>
+        <v>0.55089999999999995</v>
       </c>
       <c r="AS14" s="3">
-        <v>0.59940000000000004</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="AT14" s="3">
-        <v>0.43980000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AU14" s="3">
-        <v>0.50729999999999997</v>
+        <v>0.29420000000000002</v>
       </c>
       <c r="AV14" s="3">
-        <v>0.68940000000000001</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AW14" s="3">
-        <v>0.55620000000000003</v>
+        <v>0.45960000000000001</v>
       </c>
       <c r="AX14" s="3">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="AZ14" s="3">
         <v>0</v>
       </c>
-      <c r="AY14" s="3">
+      <c r="BA14" s="3">
         <v>0</v>
       </c>
-      <c r="AZ14" s="3">
-        <v>0.8518</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>0.76759999999999995</v>
-      </c>
       <c r="BB14" s="3">
-        <v>0.88270000000000004</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="BC14" s="3">
-        <v>0.68689999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="BD14" s="3">
-        <v>0.88639999999999997</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="BE14" s="3">
         <v>0</v>
       </c>
       <c r="BF14" s="3">
-        <v>0.75009999999999999</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="BG14" s="3">
-        <v>0.76160000000000005</v>
+        <v>0.74319999999999997</v>
       </c>
       <c r="BH14" s="3">
-        <v>0.66369999999999996</v>
+        <v>0.50190000000000001</v>
       </c>
       <c r="BI14" s="2">
-        <v>0.650232106919029</v>
-      </c>
-      <c r="BJ14" s="10">
-        <v>0.65106419946666305</v>
+        <v>0.97053060436215499</v>
+      </c>
+      <c r="BJ14" s="12">
+        <v>0.97636693178789802</v>
       </c>
       <c r="BK14" s="2">
-        <v>0.907785165267321</v>
-      </c>
-      <c r="BL14" s="10">
-        <v>0.93683913079717296</v>
+        <v>0.99706434797272203</v>
+      </c>
+      <c r="BL14" s="12">
+        <v>0.98220641325093005</v>
       </c>
       <c r="BM14" s="2">
         <v>4.5040017887130617</v>
@@ -4340,20 +4387,20 @@
       <c r="BO14" s="2">
         <v>4.5473867428589454</v>
       </c>
-      <c r="BP14" s="2" t="e">
+      <c r="BP14" s="2">
+        <v>4.1137208028912733</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>4.2725618912952621</v>
+      </c>
+      <c r="BR14" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="BQ14" s="2" t="e">
+      <c r="BS14" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="BR14" s="2">
-        <v>4.1137208028912733</v>
-      </c>
-      <c r="BS14" s="2">
+      <c r="BT14" s="2">
         <v>4.3005426610785502</v>
-      </c>
-      <c r="BT14" s="2">
-        <v>4.2725618912952621</v>
       </c>
       <c r="BU14" s="2">
         <v>3.5969037421790957</v>
@@ -4374,28 +4421,28 @@
         <v>4.5542892295015989</v>
       </c>
       <c r="CA14" s="2">
-        <v>7.1428571428571397</v>
+        <v>7.8888999999999996</v>
       </c>
       <c r="CB14" s="2">
-        <v>7.1428571428571397</v>
+        <v>8</v>
       </c>
       <c r="CC14" s="2">
-        <v>7.4285714285714297</v>
+        <v>8</v>
       </c>
       <c r="CD14" s="2">
-        <v>6.71428571428571</v>
+        <v>7.5556000000000001</v>
       </c>
       <c r="CE14" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF14" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG14" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH14" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4403,13 +4450,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3">
         <v>0.48870000000000002</v>
@@ -4418,28 +4465,28 @@
         <v>0.44590000000000002</v>
       </c>
       <c r="G15" s="3">
-        <v>0.25829999999999997</v>
+        <v>0.23580000000000001</v>
       </c>
       <c r="H15" s="3">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.34139999999999998</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>0.27660000000000001</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>0.5867</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.59589999999999999</v>
       </c>
       <c r="M15" s="3">
         <v>0.4869</v>
       </c>
       <c r="N15" s="3">
-        <v>0.53459999999999996</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="O15" s="3">
         <v>0.54010000000000002</v>
@@ -4448,10 +4495,10 @@
         <v>0.58520000000000005</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.34470000000000001</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="R15" s="3">
-        <v>0.224</v>
+        <v>0.2235</v>
       </c>
       <c r="S15" s="3">
         <v>0.49180000000000001</v>
@@ -4460,28 +4507,28 @@
         <v>0.44890000000000002</v>
       </c>
       <c r="U15" s="3">
-        <v>0.26169999999999999</v>
+        <v>0.23930000000000001</v>
       </c>
       <c r="V15" s="3">
+        <v>0.5232</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.55010000000000003</v>
+      </c>
+      <c r="X15" s="3">
         <v>0.34410000000000002</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>0.28089999999999998</v>
       </c>
-      <c r="X15" s="3">
-        <v>0.53510000000000002</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>0.58879999999999999</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0.59899999999999998</v>
       </c>
       <c r="AA15" s="3">
         <v>0.4904</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.54039999999999999</v>
+        <v>0.54369999999999996</v>
       </c>
       <c r="AC15" s="3">
         <v>0.54339999999999999</v>
@@ -4490,10 +4537,10 @@
         <v>0.58809999999999996</v>
       </c>
       <c r="AE15" s="3">
-        <v>0.34810000000000002</v>
+        <v>0.34789999999999999</v>
       </c>
       <c r="AF15" s="3">
-        <v>0.2291</v>
+        <v>0.2286</v>
       </c>
       <c r="AG15" s="3">
         <v>0.33250000000000002</v>
@@ -4502,28 +4549,28 @@
         <v>0.24529999999999999</v>
       </c>
       <c r="AI15" s="3">
-        <v>0.15040000000000001</v>
+        <v>0.1328</v>
       </c>
       <c r="AJ15" s="3">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AL15" s="3">
         <v>0.2223</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AM15" s="3">
         <v>0.1502</v>
       </c>
-      <c r="AL15" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="AM15" s="3">
+      <c r="AN15" s="3">
         <v>0.37809999999999999</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>0.4551</v>
       </c>
       <c r="AO15" s="3">
         <v>0.27579999999999999</v>
       </c>
       <c r="AP15" s="3">
-        <v>0.34260000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AQ15" s="3">
         <v>0.25650000000000001</v>
@@ -4532,10 +4579,10 @@
         <v>0.29160000000000003</v>
       </c>
       <c r="AS15" s="3">
-        <v>0.2041</v>
+        <v>0.19539999999999999</v>
       </c>
       <c r="AT15" s="3">
-        <v>0.17349999999999999</v>
+        <v>0.1739</v>
       </c>
       <c r="AU15" s="3">
         <v>0.47289999999999999</v>
@@ -4544,28 +4591,28 @@
         <v>0.3921</v>
       </c>
       <c r="AW15" s="3">
-        <v>0.28189999999999998</v>
+        <v>0.2727</v>
       </c>
       <c r="AX15" s="3">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>0.4965</v>
+      </c>
+      <c r="AZ15" s="3">
         <v>0.34860000000000002</v>
       </c>
-      <c r="AY15" s="3">
+      <c r="BA15" s="3">
         <v>0.25369999999999998</v>
       </c>
-      <c r="AZ15" s="3">
-        <v>0.56430000000000002</v>
-      </c>
-      <c r="BA15" s="3">
+      <c r="BB15" s="3">
         <v>0.45429999999999998</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>0.57140000000000002</v>
       </c>
       <c r="BC15" s="3">
         <v>0.37259999999999999</v>
       </c>
       <c r="BD15" s="3">
-        <v>0.43890000000000001</v>
+        <v>0.39989999999999998</v>
       </c>
       <c r="BE15" s="3">
         <v>0.4128</v>
@@ -4574,22 +4621,22 @@
         <v>0.4284</v>
       </c>
       <c r="BG15" s="3">
-        <v>0.32869999999999999</v>
+        <v>0.32819999999999999</v>
       </c>
       <c r="BH15" s="3">
         <v>0.3145</v>
       </c>
-      <c r="BI15">
-        <v>2.96319211337703E-8</v>
-      </c>
-      <c r="BJ15">
-        <v>3.01435179619343E-8</v>
-      </c>
-      <c r="BK15">
-        <v>9.6964190012445806E-6</v>
-      </c>
-      <c r="BL15">
-        <v>1.03764769868837E-6</v>
+      <c r="BI15" s="11">
+        <v>2.6846642858043999E-5</v>
+      </c>
+      <c r="BJ15" s="11">
+        <v>2.6982122565425301E-5</v>
+      </c>
+      <c r="BK15" s="11">
+        <v>1.00277407172432E-3</v>
+      </c>
+      <c r="BL15" s="11">
+        <v>3.8207998753548602E-4</v>
       </c>
       <c r="BM15" s="2">
         <v>3.8757475431170136</v>
@@ -4601,19 +4648,19 @@
         <v>3.443248902003841</v>
       </c>
       <c r="BP15" s="2">
+        <v>4.6021053075928142</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>4.2040274409289387</v>
+      </c>
+      <c r="BR15" s="2">
         <v>5.0044430666849387</v>
       </c>
-      <c r="BQ15" s="2">
+      <c r="BS15" s="2">
         <v>5.2952959012013565</v>
       </c>
-      <c r="BR15" s="2">
-        <v>4.6021053075928142</v>
-      </c>
-      <c r="BS15" s="2">
+      <c r="BT15" s="2">
         <v>5.2708990758760628</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>4.2040274409289387</v>
       </c>
       <c r="BU15" s="2">
         <v>5.002822188879418</v>
@@ -4634,28 +4681,28 @@
         <v>4.6913013168570741</v>
       </c>
       <c r="CA15" s="2">
-        <v>14.5714285714286</v>
+        <v>13.5556</v>
       </c>
       <c r="CB15" s="2">
-        <v>14.4285714285714</v>
+        <v>13.4444</v>
       </c>
       <c r="CC15" s="2">
-        <v>13.6428571428571</v>
+        <v>12.5556</v>
       </c>
       <c r="CD15" s="2">
-        <v>14.6428571428571</v>
+        <v>14</v>
       </c>
       <c r="CE15" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF15" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG15" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH15" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4663,193 +4710,193 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3">
-        <v>0.18609999999999999</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>0.1163</v>
+        <v>0.1051</v>
       </c>
       <c r="G16" s="3">
-        <v>0.16009999999999999</v>
+        <v>0.15340000000000001</v>
       </c>
       <c r="H16" s="3">
-        <v>5.67E-2</v>
+        <v>0.24390000000000001</v>
       </c>
       <c r="I16" s="3">
-        <v>0.21440000000000001</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="J16" s="3">
-        <v>0.24390000000000001</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="K16" s="3">
-        <v>0.1804</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="L16" s="3">
-        <v>0.17810000000000001</v>
+        <v>0.16389999999999999</v>
       </c>
       <c r="M16" s="3">
-        <v>0.15679999999999999</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="N16" s="3">
-        <v>0.13270000000000001</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="O16" s="3">
-        <v>0.4834</v>
+        <v>0.28320000000000001</v>
       </c>
       <c r="P16" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.1714</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.1575</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.1817</v>
+      </c>
+      <c r="X16" s="3">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AG16" s="4">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="Q16" s="3">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0.1416</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.1925</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.1641</v>
-      </c>
-      <c r="V16" s="3">
-        <v>6.13E-2</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.21929999999999999</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0.25030000000000002</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.18490000000000001</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0.18529999999999999</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0.16259999999999999</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0.48809999999999998</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>9.4299999999999995E-2</v>
-      </c>
       <c r="AH16" s="3">
-        <v>7.46E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI16" s="3">
-        <v>6.7100000000000007E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="AJ16" s="3">
+        <v>0.2772</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0.1048</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0.3619</v>
+      </c>
+      <c r="AR16" s="3">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="AK16" s="3">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>0.2772</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>0.1075</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>0.67290000000000005</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>9.8900000000000002E-2</v>
-      </c>
       <c r="AS16" s="3">
-        <v>0.13009999999999999</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="AT16" s="3">
-        <v>7.9299999999999995E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="AU16" s="3">
-        <v>0.28389999999999999</v>
+        <v>0.26910000000000001</v>
       </c>
       <c r="AV16" s="3">
-        <v>0.29620000000000002</v>
+        <v>0.28920000000000001</v>
       </c>
       <c r="AW16" s="3">
-        <v>0.22409999999999999</v>
+        <v>0.22159999999999999</v>
       </c>
       <c r="AX16" s="3">
-        <v>0.27389999999999998</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="AY16" s="3">
-        <v>0.21629999999999999</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AZ16" s="3">
-        <v>0.64659999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="BA16" s="3">
-        <v>0.30719999999999997</v>
+        <v>0.2031</v>
       </c>
       <c r="BB16" s="3">
-        <v>0.3387</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="BC16" s="3">
-        <v>0.25609999999999999</v>
+        <v>0.22570000000000001</v>
       </c>
       <c r="BD16" s="3">
-        <v>0.3009</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="BE16" s="3">
-        <v>0.75439999999999996</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="BF16" s="3">
-        <v>0.28620000000000001</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="BG16" s="3">
-        <v>0.35830000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="BH16" s="3">
-        <v>0.29720000000000002</v>
-      </c>
-      <c r="BI16">
-        <v>1.5992553209047201E-8</v>
-      </c>
-      <c r="BJ16">
-        <v>1.5836532863366801E-8</v>
-      </c>
-      <c r="BK16">
-        <v>7.0952469200053004E-5</v>
-      </c>
-      <c r="BL16">
-        <v>6.5645825127284802E-5</v>
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="BI16" s="11">
+        <v>9.2856408031543205E-6</v>
+      </c>
+      <c r="BJ16" s="11">
+        <v>9.2082418065836697E-6</v>
+      </c>
+      <c r="BK16" s="11">
+        <v>7.8709612817867702E-4</v>
+      </c>
+      <c r="BL16" s="11">
+        <v>4.54696176553805E-3</v>
       </c>
       <c r="BM16" s="2">
         <v>3.7183804348590286</v>
@@ -4861,19 +4908,19 @@
         <v>3.8118014769579327</v>
       </c>
       <c r="BP16" s="2">
+        <v>4.181799870576242</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>4.0319067080033024</v>
+      </c>
+      <c r="BR16" s="2">
         <v>3.9616047404395935</v>
       </c>
-      <c r="BQ16" s="2">
+      <c r="BS16" s="2">
         <v>4.2078610137274319</v>
       </c>
-      <c r="BR16" s="2">
-        <v>4.181799870576242</v>
-      </c>
-      <c r="BS16" s="2">
+      <c r="BT16" s="2">
         <v>4.2262977270294719</v>
-      </c>
-      <c r="BT16" s="2">
-        <v>4.0319067080033024</v>
       </c>
       <c r="BU16" s="2">
         <v>3.8911286159277063</v>
@@ -4894,28 +4941,28 @@
         <v>3.904009716724167</v>
       </c>
       <c r="CA16" s="2">
-        <v>18.428571428571399</v>
+        <v>18</v>
       </c>
       <c r="CB16" s="2">
-        <v>18.428571428571399</v>
+        <v>18</v>
       </c>
       <c r="CC16" s="2">
-        <v>17.3571428571429</v>
+        <v>16.444400000000002</v>
       </c>
       <c r="CD16" s="2">
-        <v>16.214285714285701</v>
+        <v>15.8889</v>
       </c>
       <c r="CE16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4923,37 +4970,37 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3">
-        <v>0.5575</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="F17" s="3">
-        <v>0.59770000000000001</v>
+        <v>0.5978</v>
       </c>
       <c r="G17" s="3">
-        <v>0.61250000000000004</v>
+        <v>0.56659999999999999</v>
       </c>
       <c r="H17" s="3">
+        <v>0.6492</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="J17" s="3">
-        <v>0.7319</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>0.71079999999999999</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.62819999999999998</v>
       </c>
       <c r="M17" s="3">
         <v>0.66259999999999997</v>
@@ -4965,7 +5012,7 @@
         <v>0.81587514699999997</v>
       </c>
       <c r="P17" s="3">
-        <v>0.71115332600000003</v>
+        <v>0.71919999999999995</v>
       </c>
       <c r="Q17" s="3">
         <v>0.59879481199999995</v>
@@ -4974,28 +5021,28 @@
         <v>0.42886853600000002</v>
       </c>
       <c r="S17" s="3">
-        <v>0.56110000000000004</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="T17" s="3">
         <v>0.59860000000000002</v>
       </c>
       <c r="U17" s="3">
-        <v>0.61439999999999995</v>
+        <v>0.56779999999999997</v>
       </c>
       <c r="V17" s="3">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="X17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>0.47970000000000002</v>
       </c>
-      <c r="X17" s="3">
-        <v>0.73319999999999996</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>0.7127</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0.63029999999999997</v>
       </c>
       <c r="AA17" s="3">
         <v>0.6643</v>
@@ -5007,7 +5054,7 @@
         <v>0.81781086329999997</v>
       </c>
       <c r="AD17" s="3">
-        <v>0.71360000000000001</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="AE17" s="5">
         <v>0.60140069399999996</v>
@@ -5016,28 +5063,28 @@
         <v>0.43183539799999998</v>
       </c>
       <c r="AG17" s="3">
-        <v>0.40179999999999999</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="AH17" s="3">
-        <v>0.32529999999999998</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="AI17" s="3">
-        <v>0.46920000000000001</v>
+        <v>0.38179999999999997</v>
       </c>
       <c r="AJ17" s="3">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="AL17" s="3">
         <v>0</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AM17" s="3">
         <v>0.30690000000000001</v>
       </c>
-      <c r="AL17" s="3">
-        <v>0.88580000000000003</v>
-      </c>
-      <c r="AM17" s="3">
+      <c r="AN17" s="3">
         <v>0.48570000000000002</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>0.34250000000000003</v>
       </c>
       <c r="AO17" s="3">
         <v>0.42499999999999999</v>
@@ -5049,7 +5096,7 @@
         <v>0.91356242710000002</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.6482</v>
+        <v>0.55330000000000001</v>
       </c>
       <c r="AS17" s="3">
         <v>0.64314511249999995</v>
@@ -5058,28 +5105,28 @@
         <v>0.27338513450000002</v>
       </c>
       <c r="AU17" s="3">
-        <v>0.57789999999999997</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="AV17" s="3">
-        <v>0.41720000000000002</v>
+        <v>0.4163</v>
       </c>
       <c r="AW17" s="3">
-        <v>0.60089999999999999</v>
+        <v>0.49030000000000001</v>
       </c>
       <c r="AX17" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="AZ17" s="3">
         <v>0.28179999999999999</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="BA17" s="3">
         <v>0.45340000000000003</v>
       </c>
-      <c r="AZ17" s="3">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="BA17" s="3">
+      <c r="BB17" s="3">
         <v>0.60709999999999997</v>
-      </c>
-      <c r="BB17" s="3">
-        <v>0.53659999999999997</v>
       </c>
       <c r="BC17" s="3">
         <v>0.4995</v>
@@ -5091,7 +5138,7 @@
         <v>0.87425069929999999</v>
       </c>
       <c r="BF17" s="3">
-        <v>0.70650000000000002</v>
+        <v>0.63519999999999999</v>
       </c>
       <c r="BG17" s="3">
         <v>0.69293842029999997</v>
@@ -5100,16 +5147,16 @@
         <v>0.45383477709999998</v>
       </c>
       <c r="BI17" s="2">
-        <v>5.3833830678867899E-2</v>
-      </c>
-      <c r="BJ17" s="10">
-        <v>5.3972069950868902E-2</v>
+        <v>0.209474450112664</v>
+      </c>
+      <c r="BJ17" s="12">
+        <v>0.20877584163240101</v>
       </c>
       <c r="BK17" s="2">
-        <v>0.33674888145621601</v>
-      </c>
-      <c r="BL17" s="10">
-        <v>0.19048529065509001</v>
+        <v>0.661705334146798</v>
+      </c>
+      <c r="BL17" s="12">
+        <v>0.52185221499840895</v>
       </c>
       <c r="BM17" s="2">
         <v>3.1256829136951549</v>
@@ -5121,19 +5168,19 @@
         <v>3.2575513871444328</v>
       </c>
       <c r="BP17" s="2">
+        <v>2.7464395789558753</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>3.0688016035367922</v>
+      </c>
+      <c r="BR17" s="2">
         <v>3.4625207810494532</v>
       </c>
-      <c r="BQ17" s="2">
+      <c r="BS17" s="2">
         <v>3.7988335767664227</v>
       </c>
-      <c r="BR17" s="2">
-        <v>2.7464395789558753</v>
-      </c>
-      <c r="BS17" s="2">
+      <c r="BT17" s="2">
         <v>3.7641514643611926</v>
-      </c>
-      <c r="BT17" s="2">
-        <v>3.0688016035367922</v>
       </c>
       <c r="BU17" s="2">
         <v>3.4906494275055429</v>
@@ -5154,28 +5201,28 @@
         <v>3.1293998361358955</v>
       </c>
       <c r="CA17" s="2">
-        <v>8.8571428571428594</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="CB17" s="2">
-        <v>8.8571428571428594</v>
+        <v>6.6666999999999996</v>
       </c>
       <c r="CC17" s="2">
-        <v>8.4285714285714306</v>
+        <v>6.7778</v>
       </c>
       <c r="CD17" s="2">
-        <v>8.1428571428571406</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="CE17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH17" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5183,16 +5230,16 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>0.39190000000000003</v>
+        <v>0.3891</v>
       </c>
       <c r="F18" s="3">
         <v>0.39290000000000003</v>
@@ -5200,41 +5247,41 @@
       <c r="G18" s="3">
         <v>0.16089999999999999</v>
       </c>
-      <c r="H18" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="4">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="J18" s="4">
-        <v>0.52459999999999996</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>0.39240000000000003</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.41389999999999999</v>
       </c>
       <c r="M18" s="4">
         <v>0.35110000000000002</v>
       </c>
       <c r="N18" s="4">
-        <v>0.44940000000000002</v>
+        <v>0.39589999999999997</v>
       </c>
       <c r="O18" s="4">
         <v>0.42670000000000002</v>
       </c>
       <c r="P18" s="4">
-        <v>-1E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="Q18" s="4">
         <v>0.1421</v>
       </c>
       <c r="R18" s="4">
-        <v>7.7100000000000002E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="S18" s="4">
-        <v>0.3957</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="T18" s="4">
         <v>0.39589999999999997</v>
@@ -5243,40 +5290,40 @@
         <v>0.16470000000000001</v>
       </c>
       <c r="V18" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>0.5272</v>
       </c>
       <c r="W18" s="4">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="X18" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y18" s="4">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="X18" s="4">
-        <v>0.5272</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="4">
         <v>0.3957</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>0.41870000000000002</v>
       </c>
       <c r="AA18" s="4">
         <v>0.35560000000000003</v>
       </c>
       <c r="AB18" s="4">
-        <v>0.45639999999999997</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="AC18" s="4">
         <v>0.43099999999999999</v>
       </c>
       <c r="AD18" s="4">
-        <v>7.4000000000000003E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="AE18" s="4">
         <v>0.14649999999999999</v>
       </c>
       <c r="AF18" s="4">
-        <v>8.3099999999999993E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="AG18" s="4">
-        <v>0.19270000000000001</v>
+        <v>0.23050000000000001</v>
       </c>
       <c r="AH18" s="4">
         <v>0.2293</v>
@@ -5285,25 +5332,25 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="AJ18" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.4874</v>
       </c>
       <c r="AK18" s="4">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AM18" s="4">
         <v>1E-4</v>
       </c>
-      <c r="AL18" s="4">
-        <v>0.4874</v>
-      </c>
-      <c r="AM18" s="4">
+      <c r="AN18" s="4">
         <v>0.2079</v>
-      </c>
-      <c r="AN18" s="4">
-        <v>0.27439999999999998</v>
       </c>
       <c r="AO18" s="4">
         <v>0.2273</v>
       </c>
       <c r="AP18" s="4">
-        <v>0.30080000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AQ18" s="4">
         <v>0.22689999999999999</v>
@@ -5315,10 +5362,10 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AT18" s="4">
-        <v>3.2899999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="AU18" s="4">
-        <v>0.36249999999999999</v>
+        <v>0.39279999999999998</v>
       </c>
       <c r="AV18" s="4">
         <v>0.38579999999999998</v>
@@ -5327,49 +5374,49 @@
         <v>0.215</v>
       </c>
       <c r="AX18" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="AY18" s="4">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>0.1206</v>
+      </c>
+      <c r="BA18" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="AZ18" s="4">
-        <v>0.49909999999999999</v>
-      </c>
-      <c r="BA18" s="4">
+      <c r="BB18" s="4">
         <v>0.2979</v>
-      </c>
-      <c r="BB18" s="4">
-        <v>0.38769999999999999</v>
       </c>
       <c r="BC18" s="4">
         <v>0.28420000000000001</v>
       </c>
       <c r="BD18" s="4">
-        <v>0.36840000000000001</v>
+        <v>0.30580000000000002</v>
       </c>
       <c r="BE18" s="4">
         <v>0.38890000000000002</v>
       </c>
       <c r="BF18" s="4">
-        <v>0.1454</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="BG18" s="4">
         <v>0.16980000000000001</v>
       </c>
       <c r="BH18" s="4">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="BI18">
-        <v>4.2177630315038E-8</v>
-      </c>
-      <c r="BJ18">
-        <v>4.2817692712821398E-8</v>
-      </c>
-      <c r="BK18">
-        <v>6.1824784004119594E-8</v>
-      </c>
-      <c r="BL18">
-        <v>1.01462130239224E-8</v>
+        <v>0.1295</v>
+      </c>
+      <c r="BI18" s="11">
+        <v>2.54344657825099E-5</v>
+      </c>
+      <c r="BJ18" s="11">
+        <v>2.5647576323658E-5</v>
+      </c>
+      <c r="BK18" s="11">
+        <v>1.00278012559872E-4</v>
+      </c>
+      <c r="BL18" s="11">
+        <v>2.3936202263911101E-5</v>
       </c>
       <c r="BM18" s="2">
         <v>2.1376072705046303</v>
@@ -5381,19 +5428,19 @@
         <v>2.6329935019960269</v>
       </c>
       <c r="BP18" s="2">
+        <v>1.7197454925295768</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>1.573219827114422</v>
+      </c>
+      <c r="BR18" s="2">
         <v>2.4711889941367522</v>
       </c>
-      <c r="BQ18" s="2">
+      <c r="BS18" s="2">
         <v>2.3023309286843991</v>
       </c>
-      <c r="BR18" s="2">
-        <v>1.7197454925295768</v>
-      </c>
-      <c r="BS18" s="2">
+      <c r="BT18" s="2">
         <v>2.2246366386814405</v>
-      </c>
-      <c r="BT18" s="2">
-        <v>1.573219827114422</v>
       </c>
       <c r="BU18" s="2">
         <v>1.89242854694523</v>
@@ -5414,28 +5461,28 @@
         <v>1.89242854694523</v>
       </c>
       <c r="CA18" s="2">
-        <v>18.3571428571429</v>
+        <v>18.555599999999998</v>
       </c>
       <c r="CB18" s="2">
-        <v>18.3571428571429</v>
+        <v>18.333300000000001</v>
       </c>
       <c r="CC18" s="2">
-        <v>18</v>
+        <v>18.222200000000001</v>
       </c>
       <c r="CD18" s="2">
-        <v>18.3571428571429</v>
+        <v>18.222200000000001</v>
       </c>
       <c r="CE18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5443,13 +5490,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3">
         <v>0.69540000000000002</v>
@@ -5458,34 +5505,34 @@
         <v>0.73240000000000005</v>
       </c>
       <c r="G19" s="3">
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.68610000000000004</v>
+        <v>0.45610000000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.77559999999999996</v>
       </c>
       <c r="I19" s="3">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.6764</v>
+      </c>
+      <c r="K19" s="3">
         <v>0.48859999999999998</v>
       </c>
-      <c r="J19" s="2">
-        <v>0.81689999999999996</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>0.75539999999999996</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.75129999999999997</v>
       </c>
       <c r="M19" s="3">
         <v>0.71740000000000004</v>
       </c>
       <c r="N19" s="3">
-        <v>0.81369999999999998</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="O19" s="3">
-        <v>0.89329999999999998</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="P19" s="3">
-        <v>0.4718</v>
+        <v>0.3836</v>
       </c>
       <c r="Q19" s="3">
         <v>0.31509999999999999</v>
@@ -5500,40 +5547,40 @@
         <v>0.73350000000000004</v>
       </c>
       <c r="U19" s="3">
-        <v>0.54349999999999998</v>
+        <v>0.4572</v>
       </c>
       <c r="V19" s="3">
-        <v>0.68689999999999996</v>
+        <v>0.77659999999999996</v>
       </c>
       <c r="W19" s="3">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="Y19" s="3">
         <v>0.49020000000000002</v>
       </c>
-      <c r="X19" s="3">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="Y19" s="3">
+      <c r="Z19" s="3">
         <v>0.75639999999999996</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0.75280000000000002</v>
       </c>
       <c r="AA19" s="3">
         <v>0.71879999999999999</v>
       </c>
       <c r="AB19" s="3">
-        <v>0.81579999999999997</v>
+        <v>0.78839999999999999</v>
       </c>
       <c r="AC19" s="3">
-        <v>0.89390000000000003</v>
+        <v>0.7419</v>
       </c>
       <c r="AD19" s="3">
-        <v>0.47549999999999998</v>
+        <v>0.3856</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.249</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="AF19" s="2">
-        <v>0.18579999999999999</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="AG19" s="2">
         <v>0.38500000000000001</v>
@@ -5542,34 +5589,34 @@
         <v>0.56059999999999999</v>
       </c>
       <c r="AI19" s="3">
-        <v>0.38569999999999999</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="AJ19" s="3">
-        <v>0.7218</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="AK19" s="3">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="AM19" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="AL19" s="3">
-        <v>0.93420000000000003</v>
-      </c>
-      <c r="AM19" s="3">
+      <c r="AN19" s="3">
         <v>0.64639999999999997</v>
       </c>
-      <c r="AN19" s="3">
-        <v>0.66290000000000004</v>
-      </c>
       <c r="AO19" s="3">
-        <v>0.63490000000000002</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="AP19" s="3">
-        <v>0.77739999999999998</v>
+        <v>0.74760000000000004</v>
       </c>
       <c r="AQ19" s="3">
-        <v>0.97729999999999995</v>
+        <v>0.7409</v>
       </c>
       <c r="AR19" s="3">
-        <v>0.22700000000000001</v>
+        <v>0.22670000000000001</v>
       </c>
       <c r="AS19" s="3">
         <v>0.249</v>
@@ -5584,34 +5631,34 @@
         <v>0.71230000000000004</v>
       </c>
       <c r="AW19" s="3">
-        <v>0.49590000000000001</v>
+        <v>0.53439999999999999</v>
       </c>
       <c r="AX19" s="3">
-        <v>0.68620000000000003</v>
+        <v>0.5786</v>
       </c>
       <c r="AY19" s="3">
+        <v>0.59530000000000005</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="BA19" s="3">
         <v>0.46489999999999998</v>
       </c>
-      <c r="AZ19" s="3">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="BA19" s="3">
+      <c r="BB19" s="3">
         <v>0.70420000000000005</v>
-      </c>
-      <c r="BB19" s="3">
-        <v>0.6381</v>
       </c>
       <c r="BC19" s="3">
         <v>0.55530000000000002</v>
       </c>
       <c r="BD19" s="3">
-        <v>0.70530000000000004</v>
+        <v>0.58850000000000002</v>
       </c>
       <c r="BE19" s="3">
-        <v>0.58899999999999997</v>
+        <v>0.7298</v>
       </c>
       <c r="BF19" s="3">
-        <v>0.27529999999999999</v>
+        <v>0.38769999999999999</v>
       </c>
       <c r="BG19" s="3">
         <v>0.34410000000000002</v>
@@ -5620,16 +5667,16 @@
         <v>0.37580000000000002</v>
       </c>
       <c r="BI19" s="2">
-        <v>0.13837620937327499</v>
-      </c>
-      <c r="BJ19" s="10">
-        <v>7.83471510488188E-2</v>
+        <v>6.4331092123669401E-2</v>
+      </c>
+      <c r="BJ19" s="12">
+        <v>6.2867422893746194E-2</v>
       </c>
       <c r="BK19" s="2">
-        <v>0.77446318134731396</v>
-      </c>
-      <c r="BL19" s="10">
-        <v>6.1038319688571797E-2</v>
+        <v>0.76375253021194001</v>
+      </c>
+      <c r="BL19" s="12">
+        <v>0.18421222016150501</v>
       </c>
       <c r="BM19" s="2">
         <v>2.840106094456758</v>
@@ -5641,19 +5688,19 @@
         <v>3.2697463731307672</v>
       </c>
       <c r="BP19" s="2">
+        <v>2.6148972160331345</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>2.6314437690131722</v>
+      </c>
+      <c r="BR19" s="2">
         <v>3.0386201619497029</v>
       </c>
-      <c r="BQ19" s="2">
+      <c r="BS19" s="2">
         <v>3.1470576710283598</v>
       </c>
-      <c r="BR19" s="2">
-        <v>2.6148972160331345</v>
-      </c>
-      <c r="BS19" s="2">
+      <c r="BT19" s="2">
         <v>3.12057393120585</v>
-      </c>
-      <c r="BT19" s="2">
-        <v>2.6314437690131722</v>
       </c>
       <c r="BU19" s="2">
         <v>3.0629578340845103</v>
@@ -5674,28 +5721,28 @@
         <v>3.0425755124401905</v>
       </c>
       <c r="CA19" s="2">
-        <v>6.1428571428571397</v>
+        <v>7.2222</v>
       </c>
       <c r="CB19" s="2">
-        <v>6.5</v>
+        <v>7.1111000000000004</v>
       </c>
       <c r="CC19" s="2">
-        <v>5.8571428571428603</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="CD19" s="2">
-        <v>7.6428571428571397</v>
+        <v>8</v>
       </c>
       <c r="CE19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5703,13 +5750,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3">
         <v>0.66390000000000005</v>
@@ -5721,31 +5768,31 @@
         <v>0.56169999999999998</v>
       </c>
       <c r="H20" s="3">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="J20" s="3">
         <v>0.69499999999999995</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>0.56089999999999995</v>
       </c>
-      <c r="J20" s="3">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>0.69920000000000004</v>
       </c>
-      <c r="L20" s="3">
-        <v>0.73140000000000005</v>
-      </c>
       <c r="M20" s="3">
-        <v>0.73009999999999997</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="N20" s="3">
-        <v>0.71630000000000005</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="O20" s="3">
-        <v>0.60950000000000004</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="P20" s="3">
-        <v>0.67159999999999997</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="Q20" s="3">
         <v>0.57709999999999995</v>
@@ -5763,31 +5810,31 @@
         <v>0.56369999999999998</v>
       </c>
       <c r="V20" s="3">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="X20" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>0.56359999999999999</v>
       </c>
-      <c r="X20" s="3">
-        <v>0.84240000000000004</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>0.70079999999999998</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0.73370000000000002</v>
-      </c>
       <c r="AA20" s="3">
-        <v>0.7319</v>
+        <v>0.70430000000000004</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.71989999999999998</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="AC20" s="3">
-        <v>0.61229999999999996</v>
+        <v>0.58609999999999995</v>
       </c>
       <c r="AD20" s="3">
-        <v>0.67400000000000004</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="AE20" s="3">
         <v>0.57940000000000003</v>
@@ -5805,31 +5852,31 @@
         <v>0.41049999999999998</v>
       </c>
       <c r="AJ20" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>0.4995</v>
+      </c>
+      <c r="AL20" s="3">
         <v>0.51639999999999997</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AM20" s="3">
         <v>0.36270000000000002</v>
       </c>
-      <c r="AL20" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="AM20" s="3">
+      <c r="AN20" s="3">
         <v>0.47820000000000001</v>
       </c>
-      <c r="AN20" s="3">
-        <v>0.4995</v>
-      </c>
       <c r="AO20" s="3">
-        <v>0.51749999999999996</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.52239999999999998</v>
+        <v>0.44890000000000002</v>
       </c>
       <c r="AQ20" s="3">
-        <v>0.2782</v>
+        <v>0.17929999999999999</v>
       </c>
       <c r="AR20" s="3">
-        <v>0.3851</v>
+        <v>0.3</v>
       </c>
       <c r="AS20" s="3">
         <v>0.37569999999999998</v>
@@ -5847,31 +5894,31 @@
         <v>0.54669999999999996</v>
       </c>
       <c r="AX20" s="3">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="AZ20" s="3">
         <v>0.61170000000000002</v>
       </c>
-      <c r="AY20" s="3">
+      <c r="BA20" s="3">
         <v>0.47360000000000002</v>
       </c>
-      <c r="AZ20" s="3">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="BA20" s="3">
+      <c r="BB20" s="3">
         <v>0.58860000000000001</v>
       </c>
-      <c r="BB20" s="3">
-        <v>0.61919999999999997</v>
-      </c>
       <c r="BC20" s="3">
-        <v>0.65600000000000003</v>
+        <v>0.60850000000000004</v>
       </c>
       <c r="BD20" s="3">
-        <v>0.67800000000000005</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="BE20" s="3">
-        <v>0.54620000000000002</v>
+        <v>0.40379999999999999</v>
       </c>
       <c r="BF20" s="3">
-        <v>0.54210000000000003</v>
+        <v>0.46820000000000001</v>
       </c>
       <c r="BG20" s="3">
         <v>0.52890000000000004</v>
@@ -5880,16 +5927,16 @@
         <v>0.52929999999999999</v>
       </c>
       <c r="BI20" s="2">
-        <v>0.187191135943478</v>
-      </c>
-      <c r="BJ20" s="10">
-        <v>0.18801975646336599</v>
+        <v>0.50298542904017896</v>
+      </c>
+      <c r="BJ20" s="12">
+        <v>0.50373807836134599</v>
       </c>
       <c r="BK20" s="2">
-        <v>7.3577233443969201E-2</v>
-      </c>
-      <c r="BL20" s="10">
-        <v>0.17531936627977199</v>
+        <v>0.41856498923466101</v>
+      </c>
+      <c r="BL20" s="12">
+        <v>0.30891067807809103</v>
       </c>
       <c r="BM20" s="2">
         <v>2.0922994765742495</v>
@@ -5901,19 +5948,19 @@
         <v>2.2920566046214685</v>
       </c>
       <c r="BP20" s="2">
+        <v>2.0470021305185053</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>2.0523090996473234</v>
+      </c>
+      <c r="BR20" s="2">
         <v>3.1628838867119402</v>
       </c>
-      <c r="BQ20" s="2">
+      <c r="BS20" s="2">
         <v>2.6352323462394964</v>
       </c>
-      <c r="BR20" s="2">
-        <v>2.0470021305185053</v>
-      </c>
-      <c r="BS20" s="2">
+      <c r="BT20" s="2">
         <v>2.6144331585504523</v>
-      </c>
-      <c r="BT20" s="2">
-        <v>2.0523090996473234</v>
       </c>
       <c r="BU20" s="2">
         <v>2.53773096841162</v>
@@ -5934,28 +5981,28 @@
         <v>2.4311707014832571</v>
       </c>
       <c r="CA20" s="2">
-        <v>5.21428571428571</v>
+        <v>4.6666999999999996</v>
       </c>
       <c r="CB20" s="2">
-        <v>5.21428571428571</v>
+        <v>4.5556000000000001</v>
       </c>
       <c r="CC20" s="2">
-        <v>7.21428571428571</v>
+        <v>6.3333000000000004</v>
       </c>
       <c r="CD20" s="2">
-        <v>6.5714285714285703</v>
+        <v>6</v>
       </c>
       <c r="CE20" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CF20" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CG20" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="CH20" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5963,193 +6010,193 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3">
-        <v>0.6331</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="F21" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="G21" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="H21" s="3">
-        <v>0.32340000000000002</v>
+        <v>0.46350000000000002</v>
       </c>
       <c r="I21" s="3">
-        <v>0.3397</v>
+        <v>0.56310000000000004</v>
       </c>
       <c r="J21" s="3">
-        <v>0.46510000000000001</v>
+        <v>0.2989</v>
       </c>
       <c r="K21" s="3">
-        <v>0.55459999999999998</v>
+        <v>0.3271</v>
       </c>
       <c r="L21" s="3">
-        <v>0.59030000000000005</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="M21" s="3">
         <v>0.50690000000000002</v>
       </c>
       <c r="N21" s="3">
-        <v>0.59019999999999995</v>
+        <v>0.56940000000000002</v>
       </c>
       <c r="O21" s="3">
-        <v>0.45500000000000002</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="P21" s="2">
-        <v>0.53879999999999995</v>
+        <v>0.51359999999999995</v>
       </c>
       <c r="Q21" s="3">
-        <v>0.3196</v>
+        <v>0.28670000000000001</v>
       </c>
       <c r="R21" s="3">
-        <v>0.2908</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="S21" s="3">
-        <v>0.63529999999999998</v>
+        <v>0.5232</v>
       </c>
       <c r="T21" s="3">
-        <v>0.5958</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="U21" s="3">
-        <v>0.40570000000000001</v>
+        <v>0.3478</v>
       </c>
       <c r="V21" s="3">
-        <v>0.32619999999999999</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="W21" s="3">
-        <v>0.34360000000000002</v>
+        <v>0.56640000000000001</v>
       </c>
       <c r="X21" s="3">
-        <v>0.46789999999999998</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="Y21" s="3">
-        <v>0.55679999999999996</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="Z21" s="3">
-        <v>0.59340000000000004</v>
+        <v>0.52329999999999999</v>
       </c>
       <c r="AA21" s="3">
         <v>0.51</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.59509999999999996</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="AC21" s="3">
-        <v>0.45850000000000002</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="AD21" s="4">
-        <v>0.54190000000000005</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="AE21" s="3">
-        <v>0.3231</v>
+        <v>0.2903</v>
       </c>
       <c r="AF21" s="3">
-        <v>0.29530000000000001</v>
+        <v>0.27129999999999999</v>
       </c>
       <c r="AG21" s="3">
-        <v>0.51919999999999999</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="AH21" s="3">
-        <v>0.48320000000000002</v>
+        <v>0.4017</v>
       </c>
       <c r="AI21" s="3">
-        <v>0.28060000000000002</v>
+        <v>0.21560000000000001</v>
       </c>
       <c r="AJ21" s="3">
-        <v>0.18629999999999999</v>
+        <v>0.30990000000000001</v>
       </c>
       <c r="AK21" s="3">
-        <v>0.18729999999999999</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="AL21" s="3">
-        <v>0.32719999999999999</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="AM21" s="3">
-        <v>0.30980000000000002</v>
+        <v>0.1593</v>
       </c>
       <c r="AN21" s="3">
-        <v>0.45350000000000001</v>
+        <v>0.27229999999999999</v>
       </c>
       <c r="AO21" s="3">
         <v>0.25290000000000001</v>
       </c>
       <c r="AP21" s="3">
-        <v>0.36320000000000002</v>
+        <v>0.34370000000000001</v>
       </c>
       <c r="AQ21" s="3">
-        <v>0.1203</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="AR21" s="4">
-        <v>0.246</v>
+        <v>0.214</v>
       </c>
       <c r="AS21" s="3">
-        <v>0.158</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="AT21" s="3">
-        <v>0.13400000000000001</v>
+        <v>0.1041</v>
       </c>
       <c r="AU21" s="3">
-        <v>0.66290000000000004</v>
+        <v>0.56940000000000002</v>
       </c>
       <c r="AV21" s="3">
-        <v>0.66990000000000005</v>
+        <v>0.61339999999999995</v>
       </c>
       <c r="AW21" s="3">
-        <v>0.46600000000000003</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="AX21" s="3">
-        <v>0.31219999999999998</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="AY21" s="3">
-        <v>0.32890000000000003</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AZ21" s="3">
-        <v>0.4708</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="BA21" s="3">
-        <v>0.4395</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="BB21" s="3">
-        <v>0.58950000000000002</v>
+        <v>0.38769999999999999</v>
       </c>
       <c r="BC21" s="3">
         <v>0.40210000000000001</v>
       </c>
       <c r="BD21" s="3">
-        <v>0.5242</v>
+        <v>0.4824</v>
       </c>
       <c r="BE21" s="3">
-        <v>0.30790000000000001</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="BF21" s="3">
-        <v>0.42659999999999998</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="BG21" s="3">
-        <v>0.30649999999999999</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="BH21" s="3">
-        <v>0.28720000000000001</v>
-      </c>
-      <c r="BI21">
-        <v>6.7908885924163395E-7</v>
-      </c>
-      <c r="BJ21">
-        <v>6.8866220562567696E-7</v>
-      </c>
-      <c r="BK21">
-        <v>4.0373137992524703E-5</v>
-      </c>
-      <c r="BL21">
-        <v>2.2567264524721401E-5</v>
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="BI21" s="11">
+        <v>9.6632302506340994E-6</v>
+      </c>
+      <c r="BJ21" s="11">
+        <v>9.8375667497228808E-6</v>
+      </c>
+      <c r="BK21" s="11">
+        <v>1.9941438483819001E-5</v>
+      </c>
+      <c r="BL21" s="11">
+        <v>9.7278655671661106E-6</v>
       </c>
       <c r="BM21" s="2">
         <v>3.5877468741891496</v>
@@ -6161,19 +6208,19 @@
         <v>3.8136703733178114</v>
       </c>
       <c r="BP21" s="2">
+        <v>3.5293007140305943</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>3.4032355167414545</v>
+      </c>
+      <c r="BR21" s="2">
         <v>4.0224819844787962</v>
       </c>
-      <c r="BQ21" s="2">
+      <c r="BS21" s="2">
         <v>4.0160931605466041</v>
       </c>
-      <c r="BR21" s="2">
-        <v>3.5293007140305943</v>
-      </c>
-      <c r="BS21" s="2">
+      <c r="BT21" s="2">
         <v>3.9733938929721027</v>
-      </c>
-      <c r="BT21" s="2">
-        <v>3.4032355167414545</v>
       </c>
       <c r="BU21" s="2">
         <v>3.7992516133825691</v>
@@ -6194,32 +6241,33 @@
         <v>3.5857167185876846</v>
       </c>
       <c r="CA21" s="2">
-        <v>13.8571428571429</v>
+        <v>14</v>
       </c>
       <c r="CB21" s="2">
-        <v>13.714285714285699</v>
+        <v>13.8889</v>
       </c>
       <c r="CC21" s="2">
-        <v>13.714285714285699</v>
+        <v>14.8889</v>
       </c>
       <c r="CD21" s="2">
-        <v>13.285714285714301</v>
+        <v>15.1111</v>
       </c>
       <c r="CE21" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CF21" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CG21" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="CH21" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/Fig2/vertical_smage.xlsx
+++ b/scripts/Fig2/vertical_smage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\scmgca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE792D-9A1E-4B86-B556-1FB512607D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD517320-381F-4DDB-98A7-7DC6AAC90F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>scMAGCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,9 +220,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -392,6 +389,18 @@
   </si>
   <si>
     <t>TIME8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,8 +822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ30" sqref="AZ30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS26" sqref="BS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,40 +841,40 @@
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
@@ -885,28 +895,28 @@
         <v>26</v>
       </c>
       <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
         <v>73</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
       </c>
       <c r="U1" t="s">
         <v>27</v>
       </c>
       <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>93</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>95</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>96</v>
       </c>
       <c r="AA1" t="s">
         <v>28</v>
@@ -927,28 +937,28 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
         <v>75</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>76</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>100</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>101</v>
       </c>
       <c r="AO1" t="s">
         <v>35</v>
@@ -969,28 +979,28 @@
         <v>40</v>
       </c>
       <c r="AU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" t="s">
         <v>77</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>78</v>
       </c>
       <c r="AW1" t="s">
         <v>41</v>
       </c>
       <c r="AX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" t="s">
         <v>102</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>104</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>105</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>106</v>
       </c>
       <c r="BC1" t="s">
         <v>42</v>
@@ -1023,28 +1033,28 @@
         <v>51</v>
       </c>
       <c r="BM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN1" t="s">
         <v>79</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>80</v>
       </c>
       <c r="BO1" t="s">
         <v>52</v>
       </c>
       <c r="BP1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>107</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>108</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>109</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>110</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>111</v>
       </c>
       <c r="BU1" t="s">
         <v>53</v>
@@ -1065,10 +1075,10 @@
         <v>58</v>
       </c>
       <c r="CA1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="CB1" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="CC1" s="11" t="s">
         <v>59</v>
@@ -1077,16 +1087,16 @@
         <v>60</v>
       </c>
       <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -1094,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>0.65880000000000005</v>
@@ -1330,13 +1340,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="3">
         <v>0.62980000000000003</v>
@@ -1573,16 +1583,16 @@
         <v>7.2222</v>
       </c>
       <c r="CE3" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="CF3" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="CG3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="CH3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -1590,13 +1600,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="3">
         <v>0.60531707681972102</v>
@@ -1833,16 +1843,16 @@
         <v>6.6666999999999996</v>
       </c>
       <c r="CE4" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="CF4" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="CG4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="CH4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -1850,13 +1860,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6">
         <v>0.46400000000000002</v>
@@ -2093,16 +2103,16 @@
         <v>9.7777999999999992</v>
       </c>
       <c r="CE5" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="CF5" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="CG5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH5" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2110,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="7">
         <v>0.57491282470000005</v>
@@ -2353,16 +2363,16 @@
         <v>7.5556000000000001</v>
       </c>
       <c r="CE6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="CF6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="CG6" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="CH6" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2370,13 +2380,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="8">
         <v>0.60133777939999999</v>
@@ -2613,16 +2623,16 @@
         <v>6</v>
       </c>
       <c r="CE7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2630,13 +2640,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="3">
         <v>0.54120000000000001</v>
@@ -2873,16 +2883,16 @@
         <v>8.3332999999999995</v>
       </c>
       <c r="CE8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH8" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -2890,13 +2900,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="3">
         <v>0.56220000000000003</v>
@@ -3133,16 +3143,16 @@
         <v>16.333300000000001</v>
       </c>
       <c r="CE9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3150,13 +3160,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="3">
         <v>0.20369999999999999</v>
@@ -3393,16 +3403,16 @@
         <v>13.777799999999999</v>
       </c>
       <c r="CE10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG10" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="CH10" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3410,13 +3420,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="3">
         <v>0.62309999999999999</v>
@@ -3653,13 +3663,13 @@
         <v>11.666700000000001</v>
       </c>
       <c r="CE11" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="CF11" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="CG11" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="CH11" t="s">
         <v>61</v>
@@ -3670,13 +3680,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="3">
         <v>0.66659999999999997</v>
@@ -3913,16 +3923,16 @@
         <v>14.777799999999999</v>
       </c>
       <c r="CE12" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="CF12" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="CG12" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="CH12" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -3930,13 +3940,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="7">
         <v>0.3876</v>
@@ -4173,16 +4183,16 @@
         <v>11.222200000000001</v>
       </c>
       <c r="CE13" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="CF13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4190,13 +4200,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3">
         <v>0.4047</v>
@@ -4433,16 +4443,16 @@
         <v>7.5556000000000001</v>
       </c>
       <c r="CE14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4450,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="3">
         <v>0.48870000000000002</v>
@@ -4693,16 +4703,16 @@
         <v>14</v>
       </c>
       <c r="CE15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG15" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="CH15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4710,13 +4720,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
       </c>
       <c r="E16" s="3">
         <v>0.16470000000000001</v>
@@ -4953,16 +4963,16 @@
         <v>15.8889</v>
       </c>
       <c r="CE16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH16" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4970,13 +4980,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="3">
         <v>0.49419999999999997</v>
@@ -5213,16 +5223,16 @@
         <v>6.5556000000000001</v>
       </c>
       <c r="CE17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5230,13 +5240,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="3">
         <v>0.3891</v>
@@ -5473,16 +5483,16 @@
         <v>18.222200000000001</v>
       </c>
       <c r="CE18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5490,13 +5500,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="3">
         <v>0.69540000000000002</v>
@@ -5733,16 +5743,16 @@
         <v>8</v>
       </c>
       <c r="CE19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5750,13 +5760,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
       </c>
       <c r="E20" s="3">
         <v>0.66390000000000005</v>
@@ -5993,16 +6003,16 @@
         <v>6</v>
       </c>
       <c r="CE20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CF20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CG20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CH20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -6010,13 +6020,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3">
         <v>0.52039999999999997</v>
@@ -6253,16 +6263,16 @@
         <v>15.1111</v>
       </c>
       <c r="CE21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CF21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CG21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
